--- a/data/Timing.xlsx
+++ b/data/Timing.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="25040" windowHeight="15500"/>
+    <workbookView xWindow="2180" yWindow="0" windowWidth="25040" windowHeight="18160"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="8" r:id="rId1"/>
-    <sheet name="Timing DO NOT MODIFY" sheetId="7" r:id="rId2"/>
+    <sheet name="Timing MASTER" sheetId="7" r:id="rId2"/>
+    <sheet name="Backwards Daily" sheetId="10" r:id="rId3"/>
+    <sheet name="Backwards calculation MASTER" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="37">
   <si>
     <t>Acclimate to temperature (30mins)</t>
   </si>
@@ -112,12 +114,33 @@
   <si>
     <t>Process air samples (3 x 21)*2 temps = 126 samples (252 mins)</t>
   </si>
+  <si>
+    <t>Retrieve lizards, take Tb and put in assigned chambers from small room (30 mins)</t>
+  </si>
+  <si>
+    <t>Weigh lizards (20 mins)</t>
+  </si>
+  <si>
+    <t>1. Turn incubator on</t>
+  </si>
+  <si>
+    <t>Night before: Dry and weigh chambers, bobby pin on tube, preset incubator 1</t>
+  </si>
+  <si>
+    <t>Set incubator temperature and</t>
+  </si>
+  <si>
+    <t>wait for it to warm up (10 - 20 mins)</t>
+  </si>
+  <si>
+    <t>Process air samples (3 x 21)*2 temps = 126 samples (105 mins)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +185,52 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +255,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -373,8 +458,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="311">
+  <cellStyleXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -686,8 +850,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -696,7 +896,6 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,82 +935,10 @@
     <xf numFmtId="20" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -837,8 +964,295 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="311">
+  <cellStyles count="347">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -994,6 +1408,24 @@
     <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1149,6 +1581,24 @@
     <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1441,17 +1891,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z78"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="46"/>
+    <col min="2" max="2" width="10.83203125" style="21"/>
     <col min="3" max="4" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="45.5" customWidth="1"/>
@@ -1461,992 +1911,4592 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="37" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="25">
         <v>0.3576388888888889</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <f>E2+TIME(,30,)</f>
         <v>0.37847222222222221</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <f>E2+TIME(1,30,0)</f>
         <v>0.4201388888888889</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:26" s="10" customFormat="1" ht="19" customHeight="1">
-      <c r="B4" s="47"/>
-      <c r="E4" s="46"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="19" customHeight="1">
+      <c r="B4" s="22"/>
+      <c r="E4" s="21"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="12"/>
+      <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="B6" s="47"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="26"/>
       <c r="W6" s="2">
         <v>0.34375</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="8">
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="7">
         <f>W6</f>
         <v>0.34375</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="5"/>
+      <c r="E7" s="27"/>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="48">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="53">
-        <f>B8</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="W8" s="2">
+      <c r="B8" s="23">
+        <f>B11-TIME(,30,)</f>
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="27"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="23"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="28"/>
+      <c r="W9" s="2">
         <f>W6+TIME(0,25,0)</f>
         <v>0.3611111111111111</v>
       </c>
-      <c r="X8" s="20" t="s">
+      <c r="X9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="2">
-        <f>W8</f>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="2">
+        <f>W9</f>
         <v>0.3611111111111111</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="52"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="5"/>
-    </row>
     <row r="10" spans="1:26">
-      <c r="B10" s="48">
-        <f>B8+TIME(0,25,0)</f>
-        <v>0.30902777777777779</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="53">
-        <f>B10</f>
-        <v>0.30902777777777779</v>
-      </c>
-      <c r="W10" s="2">
-        <f>W8+TIME(0,25,0)</f>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="27"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="B11" s="23">
+        <f>B13-TIME(,20,)</f>
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="28"/>
+      <c r="W11" s="2">
+        <f>W9+TIME(0,25,0)</f>
         <v>0.37847222222222221</v>
       </c>
-      <c r="X10" s="31" t="s">
+      <c r="X11" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="52"/>
-      <c r="X11" s="45"/>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="B12" s="48">
-        <v>0.3576388888888889</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="27"/>
+      <c r="X12" s="82"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C13" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="X12" s="32"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" ht="14" customHeight="1">
-      <c r="C13" s="29"/>
-      <c r="E13" s="52"/>
-      <c r="W13" s="2">
-        <f>W10+TIME(0,30,0)</f>
+      <c r="E13" s="27"/>
+      <c r="X13" s="78"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" ht="14" customHeight="1">
+      <c r="C14" s="89"/>
+      <c r="E14" s="27"/>
+      <c r="W14" s="2">
+        <f>W11+TIME(0,30,0)</f>
         <v>0.39930555555555552</v>
       </c>
-      <c r="X13" s="31" t="s">
+      <c r="X14" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" ht="13" customHeight="1">
-      <c r="C14" s="30"/>
-      <c r="E14" s="52"/>
-      <c r="X14" s="45"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="14" customHeight="1">
-      <c r="B15" s="48">
-        <v>0.37986111111111115</v>
-      </c>
-      <c r="C15" s="31" t="s">
+    <row r="15" spans="1:26" ht="13" customHeight="1">
+      <c r="C15" s="90"/>
+      <c r="E15" s="27"/>
+      <c r="X15" s="82"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" ht="19" customHeight="1">
+      <c r="B16" s="132">
+        <f>B13+TIME(,30,)</f>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="C16" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="W15" s="2">
-        <f>W13+TIME(0,20,0)</f>
+      <c r="E16" s="27"/>
+      <c r="W16" s="2">
+        <f>W14+TIME(0,20,0)</f>
         <v>0.41319444444444442</v>
       </c>
-      <c r="X15" s="31" t="s">
+      <c r="X16" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="C16" s="45"/>
-      <c r="D16" s="26" t="s">
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="2:26" ht="18" customHeight="1">
+      <c r="C17" s="82"/>
+      <c r="D17" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="53">
-        <f>B15+TIME(0,10,0)</f>
-        <v>0.38680555555555557</v>
-      </c>
-      <c r="X16" s="45"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="2:26">
-      <c r="B17" s="48">
-        <f>B15+TIME(0,20,0)</f>
-        <v>0.39375000000000004</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="E17" s="28">
+        <f>B16+TIME(0,10,0)</f>
+        <v>0.36111111111111105</v>
+      </c>
+      <c r="X17" s="82"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="2:26">
+      <c r="B18" s="23"/>
+      <c r="C18" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="52"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="31" t="s">
+      <c r="D18" s="92"/>
+      <c r="E18" s="27"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z17" s="3">
-        <f>W15+TIME(0,20,0)</f>
+      <c r="Z18" s="3">
+        <f>W16+TIME(0,20,0)</f>
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="18" spans="2:26">
-      <c r="C18" s="34"/>
-      <c r="D18" s="28" t="s">
+    <row r="19" spans="2:26">
+      <c r="C19" s="80"/>
+      <c r="D19" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="53">
-        <v>0.40347222222222223</v>
-      </c>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="2:26">
-      <c r="C19" s="34"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="52"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="32"/>
+      <c r="E19" s="28">
+        <f>E17+TIME(,20,0)</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="2:26">
-      <c r="C20" s="34"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="52"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="31" t="s">
+      <c r="C20" s="80"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="27"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="2:26">
+      <c r="C21" s="80"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="27"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Z20" s="3">
-        <f>Z17+TIME(0,30,0)</f>
+      <c r="Z21" s="3">
+        <f>Z18+TIME(0,30,0)</f>
         <v>0.44791666666666663</v>
       </c>
     </row>
-    <row r="21" spans="2:26">
-      <c r="C21" s="34"/>
-      <c r="D21" s="31" t="s">
+    <row r="22" spans="2:26">
+      <c r="C22" s="80"/>
+      <c r="D22" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="53">
-        <f>E18+TIME(0,30,0)</f>
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="2:26">
-      <c r="C22" s="34"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="52"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="31" t="s">
+      <c r="E22" s="28">
+        <f>E19+TIME(0,30,0)</f>
+        <v>0.39583333333333326</v>
+      </c>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="2:26">
+      <c r="C23" s="80"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="27"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z22" s="3">
-        <f>Z20+TIME(0,22,0)</f>
+      <c r="Z23" s="3">
+        <f>Z21+TIME(0,22,0)</f>
         <v>0.46319444444444441</v>
       </c>
     </row>
-    <row r="23" spans="2:26">
-      <c r="C23" s="34"/>
-      <c r="D23" s="33" t="s">
+    <row r="24" spans="2:26">
+      <c r="C24" s="80"/>
+      <c r="D24" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="53">
-        <f>E21+TIME(0,22,0)</f>
-        <v>0.43958333333333333</v>
-      </c>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="2:26">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="52"/>
-      <c r="W24" s="2">
-        <f>W15+TIME(0,90,0)</f>
+      <c r="E24" s="28"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="2:26">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="27"/>
+      <c r="W25" s="2">
+        <f>W16+TIME(0,90,0)</f>
         <v>0.47569444444444442</v>
       </c>
-      <c r="X24" s="31" t="s">
+      <c r="X25" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="2:26">
-      <c r="C25" s="35"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="52"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="45"/>
+      <c r="Y25" s="82"/>
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="2:26">
-      <c r="B26" s="48">
-        <f>B17+TIME(0,90,0)</f>
-        <v>0.45625000000000004</v>
-      </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="81"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="27"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="2:26">
+      <c r="B27" s="23">
+        <f>B16+TIME(0,90,0)</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="C27" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="52"/>
-      <c r="W26" s="2">
-        <f>W24+TIME(0,20,0)</f>
+      <c r="D27" s="80"/>
+      <c r="E27" s="27"/>
+      <c r="W27" s="2">
+        <f>W25+TIME(0,20,0)</f>
         <v>0.48958333333333331</v>
       </c>
-      <c r="X26" s="31" t="s">
+      <c r="X27" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="2:26">
-      <c r="C27" s="32"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="52"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
+      <c r="Y27" s="82"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="2:26">
-      <c r="B28" s="48">
-        <f>B26+TIME(0,20,0)</f>
-        <v>0.47013888888888894</v>
-      </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="78"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="27"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="2:26">
+      <c r="B29" s="23">
+        <f>B27+TIME(0,20,0)</f>
+        <v>0.43055555555555552</v>
+      </c>
+      <c r="C29" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="52"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="2:26">
-      <c r="C29" s="37"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="52"/>
-      <c r="W29" s="2">
-        <f>W26+TIME(0,30,0)</f>
+      <c r="D29" s="80"/>
+      <c r="E29" s="27"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="2:26">
+      <c r="C30" s="86"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="27"/>
+      <c r="W30" s="2">
+        <f>W27+TIME(0,30,0)</f>
         <v>0.51041666666666663</v>
       </c>
-      <c r="X29" s="39" t="s">
+      <c r="X30" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="2:26">
-      <c r="C30" s="38"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="52"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="32"/>
+      <c r="Y30" s="82"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="2:26">
-      <c r="B31" s="48">
-        <f>B28+TIME(,30,)</f>
-        <v>0.49097222222222225</v>
-      </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="87"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="27"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="B32" s="23">
+        <f>B29+TIME(,30,)</f>
+        <v>0.45138888888888884</v>
+      </c>
+      <c r="C32" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="52"/>
-      <c r="W31" s="2">
-        <f>W29+TIME(0,20,0)</f>
+      <c r="D32" s="81"/>
+      <c r="E32" s="27"/>
+      <c r="W32" s="2">
+        <f>W30+TIME(0,20,0)</f>
         <v>0.52430555555555547</v>
       </c>
-      <c r="X31" s="31" t="s">
+      <c r="X32" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Y31" s="31" t="s">
+      <c r="Y32" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="Z31" s="3">
-        <f>Z22+TIME(0,90,0)</f>
+      <c r="Z32" s="3">
+        <f>Z23+TIME(0,90,0)</f>
         <v>0.52569444444444446</v>
       </c>
     </row>
-    <row r="32" spans="2:26">
-      <c r="C32" s="29"/>
-      <c r="D32" s="31" t="s">
+    <row r="33" spans="2:26">
+      <c r="C33" s="89"/>
+      <c r="D33" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="53">
-        <f>E23+TIME(0,90,0)</f>
-        <v>0.50208333333333333</v>
-      </c>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="2:26" ht="14" customHeight="1">
-      <c r="C33" s="30"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="52"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="31" t="s">
+      <c r="E33" s="28">
+        <f>E22+TIME(0,90,0)</f>
+        <v>0.45833333333333326</v>
+      </c>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="2:26" ht="14" customHeight="1">
+      <c r="C34" s="90"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="27"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z33" s="3">
-        <f>Z31+TIME(0,22,0)</f>
+      <c r="Z34" s="3">
+        <f>Z32+TIME(0,22,0)</f>
         <v>0.54097222222222219</v>
       </c>
     </row>
-    <row r="34" spans="2:26">
-      <c r="B34" s="48">
-        <f>B31+TIME(0,30,0)</f>
-        <v>0.51180555555555562</v>
-      </c>
-      <c r="C34" s="39" t="s">
+    <row r="35" spans="2:26">
+      <c r="B35" s="23">
+        <f>B32+TIME(0,30,0)</f>
+        <v>0.47222222222222215</v>
+      </c>
+      <c r="C35" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D35" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="53">
-        <f>E32 +TIME(,22,)</f>
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="2:26">
-      <c r="C35" s="40"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="52"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="32"/>
+      <c r="E35" s="28">
+        <f>E33 +TIME(,22,)</f>
+        <v>0.47361111111111104</v>
+      </c>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="48">
-        <f>B34+TIME(0,20,0)</f>
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="84"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="27"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="2:26">
+      <c r="B37" s="23"/>
+      <c r="C37" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="52"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="39" t="s">
+      <c r="D37" s="87"/>
+      <c r="E37" s="27"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="Z36" s="3">
-        <f>Z33+TIME(0,30,0)</f>
+      <c r="Z37" s="3">
+        <f>Z34+TIME(0,30,0)</f>
         <v>0.56180555555555556</v>
       </c>
     </row>
-    <row r="37" spans="2:26">
-      <c r="C37" s="34"/>
-      <c r="D37" s="28" t="s">
+    <row r="38" spans="2:26">
+      <c r="C38" s="80"/>
+      <c r="D38" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="53">
-        <f>E34+TIME(,30,)</f>
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="2:26">
-      <c r="C38" s="34"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="52"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="31" t="s">
+      <c r="E38" s="28">
+        <f>E35+TIME(,30,)</f>
+        <v>0.49444444444444435</v>
+      </c>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="2:26">
+      <c r="C39" s="80"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="27"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z38" s="3">
-        <f>Z36+TIME(0,22,0)</f>
+      <c r="Z39" s="3">
+        <f>Z37+TIME(0,22,0)</f>
         <v>0.57708333333333328</v>
       </c>
     </row>
-    <row r="39" spans="2:26">
-      <c r="C39" s="34"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="52"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="1"/>
-    </row>
     <row r="40" spans="2:26">
-      <c r="C40" s="34"/>
-      <c r="D40" s="39" t="s">
+      <c r="C40" s="80"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="27"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="2:26">
+      <c r="C41" s="80"/>
+      <c r="D41" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="53">
-        <f>E37+TIME(0,30,0)</f>
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="W40" s="2">
-        <f>W31+TIME(0,90,0)</f>
+      <c r="E41" s="28">
+        <f>E38+TIME(0,30,0)</f>
+        <v>0.51527777777777772</v>
+      </c>
+      <c r="W41" s="2">
+        <f>W32+TIME(0,90,0)</f>
         <v>0.58680555555555547</v>
       </c>
-      <c r="X40" s="31" t="s">
+      <c r="X41" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="2:26">
-      <c r="C41" s="34"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="52"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="45"/>
+      <c r="Y41" s="82"/>
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="2:26">
-      <c r="C42" s="34"/>
-      <c r="D42" s="33" t="s">
+      <c r="C42" s="80"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="27"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="2:26">
+      <c r="C43" s="80"/>
+      <c r="D43" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="53">
-        <f>E40+TIME(0,22,0)</f>
-        <v>0.57430555555555551</v>
-      </c>
-      <c r="W42" s="2">
-        <f>W40+TIME(0,24,0)</f>
+      <c r="E43" s="28"/>
+      <c r="W43" s="2">
+        <f>W41+TIME(0,24,0)</f>
         <v>0.60347222222222219</v>
       </c>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="2:26">
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="52"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="45"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="82"/>
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="C44" s="35"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="52"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="45"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="27"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="82"/>
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="2:26">
-      <c r="B45" s="48">
-        <f>B36+TIME(0,90,0)</f>
-        <v>0.58819444444444446</v>
-      </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="81"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="27"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="B46" s="23">
+        <f>B35+TIME(0,90,0)</f>
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="C46" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="52"/>
-      <c r="Y45" s="45"/>
-      <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="2:26">
-      <c r="C46" s="32"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="52"/>
-      <c r="Y46" s="32"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="27"/>
+      <c r="Y46" s="82"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="2:26">
-      <c r="B47" s="48">
-        <f>B45+TIME(0,20,0)</f>
-        <v>0.6020833333333333</v>
-      </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="78"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="27"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="2:26">
+      <c r="B48" s="23">
+        <f>B46+TIME(0,20,0)</f>
+        <v>0.54861111111111094</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="52"/>
-      <c r="Y47" s="31" t="s">
+      <c r="D48" s="80"/>
+      <c r="E48" s="27"/>
+      <c r="Y48" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="Z47" s="3">
-        <f>Z38+TIME(0,90,0)</f>
+      <c r="Z48" s="3">
+        <f>Z39+TIME(0,90,0)</f>
         <v>0.63958333333333328</v>
       </c>
     </row>
-    <row r="48" spans="2:26">
-      <c r="B48" s="48">
-        <f>B47+TIME(,10,)</f>
-        <v>0.60902777777777772</v>
-      </c>
-      <c r="C48" s="15" t="s">
+    <row r="49" spans="2:26">
+      <c r="B49" s="23">
+        <f>B48+TIME(,10,)</f>
+        <v>0.55555555555555536</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="52"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="3:26" customFormat="1">
-      <c r="D49" s="34"/>
-      <c r="E49" s="52"/>
-      <c r="O49" s="1"/>
-      <c r="X49" s="20" t="s">
+      <c r="D49" s="80"/>
+      <c r="E49" s="27"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="2:26">
+      <c r="B50"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="27"/>
+      <c r="X50" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="3">
-        <f>Z47+TIME(0,22,0)</f>
+      <c r="Y50" s="72"/>
+      <c r="Z50" s="3">
+        <f>Z48+TIME(0,22,0)</f>
         <v>0.65486111111111101</v>
       </c>
     </row>
-    <row r="50" spans="3:26" customFormat="1">
-      <c r="D50" s="35"/>
-      <c r="E50" s="52"/>
-      <c r="O50" s="1"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="3:26" customFormat="1">
-      <c r="D51" s="31" t="s">
+    <row r="51" spans="2:26">
+      <c r="B51"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="27"/>
+      <c r="X51" s="75"/>
+      <c r="Y51" s="76"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="2:26">
+      <c r="B52"/>
+      <c r="D52" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="53">
-        <f>E42+TIME(0,90,0)</f>
-        <v>0.63680555555555551</v>
-      </c>
-      <c r="O51" s="1"/>
-      <c r="X51" s="20" t="s">
+      <c r="E52" s="28">
+        <f>E41+TIME(0,90,0)</f>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="X52" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="3">
-        <f>Z49+TIME(0,25,0)</f>
+      <c r="Y52" s="72"/>
+      <c r="Z52" s="3">
+        <f>Z50+TIME(0,25,0)</f>
         <v>0.67222222222222217</v>
       </c>
     </row>
-    <row r="52" spans="3:26" customFormat="1">
-      <c r="D52" s="32"/>
-      <c r="E52" s="52"/>
-      <c r="O52" s="1"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="3:26" customFormat="1">
-      <c r="D53" s="14" t="s">
+    <row r="53" spans="2:26">
+      <c r="B53"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="27"/>
+      <c r="X53" s="75"/>
+      <c r="Y53" s="76"/>
+      <c r="Z53" s="1"/>
+    </row>
+    <row r="54" spans="2:26">
+      <c r="B54"/>
+      <c r="D54" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="53">
-        <f>E51+TIME(0,10,0)</f>
-        <v>0.64374999999999993</v>
-      </c>
-      <c r="O53" s="1"/>
-      <c r="X53" s="20" t="s">
+      <c r="E54" s="28">
+        <f>E52+TIME(0,10,0)</f>
+        <v>0.58472222222222214</v>
+      </c>
+      <c r="X54" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="3">
-        <f>Z51+TIME(0,25,0)</f>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="3">
+        <f>Z52+TIME(0,25,0)</f>
         <v>0.68958333333333333</v>
       </c>
     </row>
-    <row r="54" spans="3:26" customFormat="1">
-      <c r="D54" s="15" t="s">
+    <row r="55" spans="2:26">
+      <c r="B55"/>
+      <c r="D55" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="53">
-        <f>E53+TIME(0,10,0)</f>
-        <v>0.65069444444444435</v>
-      </c>
-      <c r="O54" s="1"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="3:26" customFormat="1">
-      <c r="C55" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="53">
+      <c r="E55" s="28">
         <f>E54+TIME(0,10,0)</f>
-        <v>0.65763888888888877</v>
-      </c>
-      <c r="O55" s="1"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="23"/>
+        <v>0.59166666666666656</v>
+      </c>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="74"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="3:26" customFormat="1">
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="52"/>
-      <c r="O56" s="1"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="23"/>
+    <row r="56" spans="2:26">
+      <c r="B56"/>
+      <c r="C56" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="72"/>
+      <c r="E56" s="28">
+        <f>E55+TIME(,10,)</f>
+        <v>0.59861111111111098</v>
+      </c>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="74"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="3:26" customFormat="1">
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="53"/>
-      <c r="O57" s="1"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="23"/>
+    <row r="57" spans="2:26">
+      <c r="B57"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="27"/>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="74"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="3:26" customFormat="1">
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="52"/>
-      <c r="O58" s="1"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="23"/>
+    <row r="58" spans="2:26">
+      <c r="B58"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="28"/>
+      <c r="X58" s="73"/>
+      <c r="Y58" s="74"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="3:26" customFormat="1">
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="53"/>
-      <c r="O59" s="1"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="23"/>
+    <row r="59" spans="2:26">
+      <c r="B59"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="27"/>
+      <c r="X59" s="73"/>
+      <c r="Y59" s="74"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="3:26" customFormat="1">
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="52"/>
-      <c r="O60" s="1"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="23"/>
+    <row r="60" spans="2:26">
+      <c r="B60"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="28"/>
+      <c r="X60" s="73"/>
+      <c r="Y60" s="74"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="3:26" customFormat="1">
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="52"/>
-      <c r="O61" s="1"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="23"/>
+    <row r="61" spans="2:26">
+      <c r="B61"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="27"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="74"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="3:26" customFormat="1">
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="52"/>
-      <c r="O62" s="1"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="23"/>
+    <row r="62" spans="2:26">
+      <c r="B62"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="27"/>
+      <c r="X62" s="73"/>
+      <c r="Y62" s="74"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="3:26" customFormat="1">
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="52"/>
-      <c r="O63" s="1"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="23"/>
+    <row r="63" spans="2:26">
+      <c r="B63"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="27"/>
+      <c r="X63" s="73"/>
+      <c r="Y63" s="74"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="3:26" customFormat="1">
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="52"/>
-      <c r="O64" s="1"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="3"/>
-    </row>
-    <row r="65" spans="3:26" customFormat="1">
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="52"/>
-      <c r="O65" s="1"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="23"/>
-      <c r="Z65" s="1"/>
-    </row>
-    <row r="66" spans="3:26" customFormat="1">
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="52"/>
-      <c r="O66" s="1"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="23"/>
+    <row r="64" spans="2:26">
+      <c r="B64"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="27"/>
+      <c r="X64" s="73"/>
+      <c r="Y64" s="74"/>
+      <c r="Z64" s="1"/>
+    </row>
+    <row r="65" spans="2:26">
+      <c r="B65"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="28">
+        <f>E56+TIME(,105,)</f>
+        <v>0.67152777777777761</v>
+      </c>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="74"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="2:26">
+      <c r="B66"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="27"/>
+      <c r="X66" s="73"/>
+      <c r="Y66" s="74"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="3:26" customFormat="1">
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="52"/>
-      <c r="O67" s="1"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="23"/>
+    <row r="67" spans="2:26">
+      <c r="B67"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="27"/>
+      <c r="X67" s="73"/>
+      <c r="Y67" s="74"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="3:26" customFormat="1">
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="52"/>
-      <c r="O68" s="1"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="23"/>
+    <row r="68" spans="2:26">
+      <c r="B68"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="27"/>
+      <c r="X68" s="73"/>
+      <c r="Y68" s="74"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="3:26" customFormat="1">
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="52"/>
-      <c r="O69" s="1"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="23"/>
+    <row r="69" spans="2:26">
+      <c r="B69"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="27"/>
+      <c r="X69" s="73"/>
+      <c r="Y69" s="74"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="3:26" customFormat="1">
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="53"/>
-      <c r="O70" s="1"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="23"/>
+    <row r="70" spans="2:26">
+      <c r="B70"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="27"/>
+      <c r="X70" s="73"/>
+      <c r="Y70" s="74"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="3:26" customFormat="1">
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="52"/>
-      <c r="O71" s="1"/>
-      <c r="X71" s="22"/>
-      <c r="Y71" s="23"/>
+    <row r="71" spans="2:26">
+      <c r="B71"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="28"/>
+      <c r="X71" s="73"/>
+      <c r="Y71" s="74"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="3:26" customFormat="1">
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="52"/>
-      <c r="O72" s="1"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="23"/>
+    <row r="72" spans="2:26">
+      <c r="B72"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="27"/>
+      <c r="X72" s="73"/>
+      <c r="Y72" s="74"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="3:26" customFormat="1">
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="52"/>
-      <c r="O73" s="1"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="23"/>
+    <row r="73" spans="2:26">
+      <c r="B73"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="27"/>
+      <c r="X73" s="73"/>
+      <c r="Y73" s="74"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="3:26" customFormat="1">
-      <c r="C74" s="22"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="52"/>
-      <c r="O74" s="1"/>
-      <c r="X74" s="22"/>
-      <c r="Y74" s="23"/>
+    <row r="74" spans="2:26">
+      <c r="B74"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="27"/>
+      <c r="X74" s="73"/>
+      <c r="Y74" s="74"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="3:26" customFormat="1">
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="52"/>
-      <c r="O75" s="1"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="23"/>
+    <row r="75" spans="2:26">
+      <c r="B75"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="27"/>
+      <c r="X75" s="73"/>
+      <c r="Y75" s="74"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="3:26" customFormat="1">
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="52"/>
-      <c r="O76" s="1"/>
-      <c r="X76" s="24"/>
-      <c r="Y76" s="25"/>
-      <c r="Z76" s="3">
-        <f>Z53+TIME(0,252,0)</f>
+    <row r="76" spans="2:26">
+      <c r="B76"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="27"/>
+      <c r="X76" s="73"/>
+      <c r="Y76" s="74"/>
+      <c r="Z76" s="1"/>
+    </row>
+    <row r="77" spans="2:26">
+      <c r="B77"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="27"/>
+      <c r="X77" s="75"/>
+      <c r="Y77" s="76"/>
+      <c r="Z77" s="3">
+        <f>Z54+TIME(0,252,0)</f>
         <v>0.86458333333333337</v>
       </c>
     </row>
-    <row r="77" spans="3:26" customFormat="1">
-      <c r="C77" s="22"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="52"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="3:26" customFormat="1">
-      <c r="C78" s="24"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="53">
-        <f>E55+TIME(,252,0)</f>
-        <v>0.83263888888888882</v>
-      </c>
-      <c r="O78" s="3"/>
-      <c r="P78" s="13"/>
+    <row r="78" spans="2:26">
+      <c r="B78"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="27"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="2:26">
+      <c r="B79"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="28"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="X53:Y76"/>
-    <mergeCell ref="C55:D78"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="Y47:Y48"/>
-    <mergeCell ref="X49:Y50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="X51:Y52"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="Y33:Y35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C36:C44"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="Y38:Y46"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="X31:X39"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="X15:X23"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="Y22:Y30"/>
-    <mergeCell ref="D23:D31"/>
     <mergeCell ref="X6:Y7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="X8:Y9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X9:Y10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="X16:X24"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="Y18:Y20"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="Y23:Y31"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="X27:X29"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="Y39:Y47"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="X32:X40"/>
+    <mergeCell ref="X54:Y77"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="D43:D51"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="X50:Y51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="X52:Y53"/>
+    <mergeCell ref="C56:D65"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="21"/>
+    <col min="3" max="4" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="45.5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="13" max="14" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="36">
+      <c r="A1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="37" thickBot="1">
+      <c r="A2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F2" s="17">
+        <f>E2+TIME(,30,)</f>
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2+TIME(1,30,0)</f>
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="19" customHeight="1">
+      <c r="B4" s="22"/>
+      <c r="E4" s="21"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="X4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="X5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="B6" s="22"/>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="W6" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="X6" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="7">
+        <f>W6</f>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="23">
+        <f>B11-TIME(,30,)</f>
+        <v>0.28125</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="27"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="23"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="28"/>
+      <c r="W9" s="2">
+        <f>W6+TIME(0,25,0)</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="X9" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="2">
+        <f>W9</f>
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="27"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="B11" s="23">
+        <f>B13-TIME(,20,)</f>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="28"/>
+      <c r="W11" s="2">
+        <f>W9+TIME(0,25,0)</f>
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="X11" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="27"/>
+      <c r="X12" s="82"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="23">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="X13" s="78"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" ht="14" customHeight="1">
+      <c r="C14" s="89"/>
+      <c r="E14" s="27"/>
+      <c r="W14" s="2">
+        <f>W11+TIME(0,30,0)</f>
+        <v>0.39930555555555552</v>
+      </c>
+      <c r="X14" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" ht="13" customHeight="1">
+      <c r="C15" s="90"/>
+      <c r="E15" s="27"/>
+      <c r="X15" s="82"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" ht="14" customHeight="1">
+      <c r="B16" s="23">
+        <f>B13+TIME(,30,0)</f>
+        <v>0.33680555555555552</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="W16" s="2">
+        <f>W14+TIME(0,20,0)</f>
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="X16" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="2:26" ht="18" customHeight="1">
+      <c r="C17" s="82"/>
+      <c r="D17" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="28">
+        <f>B16+TIME(0,10,0)</f>
+        <v>0.34374999999999994</v>
+      </c>
+      <c r="X17" s="82"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="2:26">
+      <c r="B18" s="23"/>
+      <c r="C18" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="27"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <f>W16+TIME(0,20,0)</f>
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26">
+      <c r="C19" s="80"/>
+      <c r="D19" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="28">
+        <f>E17+TIME(,20,0)</f>
+        <v>0.35763888888888884</v>
+      </c>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="2:26">
+      <c r="C20" s="80"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="27"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="2:26">
+      <c r="C21" s="80"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="27"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="3">
+        <f>Z18+TIME(0,30,0)</f>
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26">
+      <c r="C22" s="80"/>
+      <c r="D22" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="28">
+        <f>E19+TIME(0,30,0)</f>
+        <v>0.37847222222222215</v>
+      </c>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="2:26">
+      <c r="C23" s="80"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="27"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3">
+        <f>Z21+TIME(0,22,0)</f>
+        <v>0.46319444444444441</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26">
+      <c r="C24" s="80"/>
+      <c r="D24" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="2:26">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="27"/>
+      <c r="W25" s="2">
+        <f>W16+TIME(0,90,0)</f>
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="X25" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="2:26">
+      <c r="C26" s="81"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="27"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="2:26">
+      <c r="B27" s="23">
+        <f>B16+TIME(0,90,0)</f>
+        <v>0.39930555555555552</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="80"/>
+      <c r="E27" s="27"/>
+      <c r="W27" s="2">
+        <f>W25+TIME(0,20,0)</f>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="X27" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="2:26">
+      <c r="C28" s="78"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="27"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="2:26">
+      <c r="B29" s="23">
+        <f>B27+TIME(0,20,0)</f>
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="80"/>
+      <c r="E29" s="27"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="2:26">
+      <c r="C30" s="86"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="27"/>
+      <c r="W30" s="2">
+        <f>W27+TIME(0,30,0)</f>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="X30" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="2:26">
+      <c r="C31" s="87"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="27"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="B32" s="23">
+        <f>B29+TIME(,30,)</f>
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="81"/>
+      <c r="E32" s="27"/>
+      <c r="W32" s="2">
+        <f>W30+TIME(0,20,0)</f>
+        <v>0.52430555555555547</v>
+      </c>
+      <c r="X32" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z32" s="3">
+        <f>Z23+TIME(0,90,0)</f>
+        <v>0.52569444444444446</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26">
+      <c r="C33" s="89"/>
+      <c r="D33" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="28">
+        <f>E22+TIME(0,90,0)</f>
+        <v>0.44097222222222215</v>
+      </c>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="2:26" ht="14" customHeight="1">
+      <c r="C34" s="90"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="27"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <f>Z32+TIME(0,22,0)</f>
+        <v>0.54097222222222219</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="B35" s="23">
+        <f>B32+TIME(0,30,0)</f>
+        <v>0.45486111111111105</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="28">
+        <f>E33 +TIME(,22,)</f>
+        <v>0.45624999999999993</v>
+      </c>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="2:26">
+      <c r="C36" s="84"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="27"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="2:26">
+      <c r="B37" s="23"/>
+      <c r="C37" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="87"/>
+      <c r="E37" s="27"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z37" s="3">
+        <f>Z34+TIME(0,30,0)</f>
+        <v>0.56180555555555556</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26">
+      <c r="C38" s="80"/>
+      <c r="D38" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="28">
+        <f>E35+TIME(,30,)</f>
+        <v>0.47708333333333325</v>
+      </c>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="2:26">
+      <c r="C39" s="80"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="27"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="3">
+        <f>Z37+TIME(0,22,0)</f>
+        <v>0.57708333333333328</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26">
+      <c r="C40" s="80"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="27"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="2:26">
+      <c r="C41" s="80"/>
+      <c r="D41" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="28">
+        <f>E38+TIME(0,30,0)</f>
+        <v>0.49791666666666656</v>
+      </c>
+      <c r="W41" s="2">
+        <f>W32+TIME(0,90,0)</f>
+        <v>0.58680555555555547</v>
+      </c>
+      <c r="X41" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="2:26">
+      <c r="C42" s="80"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="27"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="2:26">
+      <c r="C43" s="80"/>
+      <c r="D43" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="W43" s="2">
+        <f>W41+TIME(0,24,0)</f>
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" spans="2:26">
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="27"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="2:26">
+      <c r="C45" s="81"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="27"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="B46" s="23">
+        <f>B35+TIME(0,90,0)</f>
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C46" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="80"/>
+      <c r="E46" s="27"/>
+      <c r="Y46" s="82"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="2:26">
+      <c r="C47" s="78"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="27"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="2:26">
+      <c r="B48" s="23">
+        <f>B46+TIME(0,20,0)</f>
+        <v>0.53124999999999989</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="80"/>
+      <c r="E48" s="27"/>
+      <c r="Y48" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z48" s="3">
+        <f>Z39+TIME(0,90,0)</f>
+        <v>0.63958333333333328</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26">
+      <c r="B49" s="23">
+        <f>B48+TIME(,10,)</f>
+        <v>0.53819444444444431</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="80"/>
+      <c r="E49" s="27"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="2:26">
+      <c r="B50"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="27"/>
+      <c r="X50" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y50" s="72"/>
+      <c r="Z50" s="3">
+        <f>Z48+TIME(0,22,0)</f>
+        <v>0.65486111111111101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26">
+      <c r="B51"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="27"/>
+      <c r="X51" s="75"/>
+      <c r="Y51" s="76"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="2:26">
+      <c r="B52"/>
+      <c r="D52" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="28">
+        <f>E41+TIME(0,90,0)</f>
+        <v>0.56041666666666656</v>
+      </c>
+      <c r="X52" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y52" s="72"/>
+      <c r="Z52" s="3">
+        <f>Z50+TIME(0,25,0)</f>
+        <v>0.67222222222222217</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26">
+      <c r="B53"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="27"/>
+      <c r="X53" s="75"/>
+      <c r="Y53" s="76"/>
+      <c r="Z53" s="1"/>
+    </row>
+    <row r="54" spans="2:26">
+      <c r="B54"/>
+      <c r="D54" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="28">
+        <f>E52+TIME(0,10,0)</f>
+        <v>0.56736111111111098</v>
+      </c>
+      <c r="X54" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="3">
+        <f>Z52+TIME(0,25,0)</f>
+        <v>0.68958333333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26">
+      <c r="B55"/>
+      <c r="D55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="28">
+        <f>E54+TIME(0,10,0)</f>
+        <v>0.5743055555555554</v>
+      </c>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="1"/>
+    </row>
+    <row r="56" spans="2:26">
+      <c r="B56"/>
+      <c r="C56" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="72"/>
+      <c r="E56" s="28">
+        <f>E55+TIME(0,10,0)</f>
+        <v>0.58124999999999982</v>
+      </c>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="74"/>
+      <c r="Z56" s="1"/>
+    </row>
+    <row r="57" spans="2:26">
+      <c r="B57"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="27"/>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="74"/>
+      <c r="Z57" s="1"/>
+    </row>
+    <row r="58" spans="2:26">
+      <c r="B58"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="28"/>
+      <c r="X58" s="73"/>
+      <c r="Y58" s="74"/>
+      <c r="Z58" s="1"/>
+    </row>
+    <row r="59" spans="2:26">
+      <c r="B59"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="27"/>
+      <c r="X59" s="73"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="1"/>
+    </row>
+    <row r="60" spans="2:26">
+      <c r="B60"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="28"/>
+      <c r="X60" s="73"/>
+      <c r="Y60" s="74"/>
+      <c r="Z60" s="1"/>
+    </row>
+    <row r="61" spans="2:26">
+      <c r="B61"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="27"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="74"/>
+      <c r="Z61" s="1"/>
+    </row>
+    <row r="62" spans="2:26">
+      <c r="B62"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="27"/>
+      <c r="X62" s="73"/>
+      <c r="Y62" s="74"/>
+      <c r="Z62" s="1"/>
+    </row>
+    <row r="63" spans="2:26">
+      <c r="B63"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="27"/>
+      <c r="X63" s="73"/>
+      <c r="Y63" s="74"/>
+      <c r="Z63" s="1"/>
+    </row>
+    <row r="64" spans="2:26">
+      <c r="B64"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="27"/>
+      <c r="X64" s="73"/>
+      <c r="Y64" s="74"/>
+      <c r="Z64" s="1"/>
+    </row>
+    <row r="65" spans="2:26">
+      <c r="B65"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="27"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="74"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="2:26">
+      <c r="B66"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="27"/>
+      <c r="X66" s="73"/>
+      <c r="Y66" s="74"/>
+      <c r="Z66" s="1"/>
+    </row>
+    <row r="67" spans="2:26">
+      <c r="B67"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="27"/>
+      <c r="X67" s="73"/>
+      <c r="Y67" s="74"/>
+      <c r="Z67" s="1"/>
+    </row>
+    <row r="68" spans="2:26">
+      <c r="B68"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="27"/>
+      <c r="X68" s="73"/>
+      <c r="Y68" s="74"/>
+      <c r="Z68" s="1"/>
+    </row>
+    <row r="69" spans="2:26">
+      <c r="B69"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="27"/>
+      <c r="X69" s="73"/>
+      <c r="Y69" s="74"/>
+      <c r="Z69" s="1"/>
+    </row>
+    <row r="70" spans="2:26">
+      <c r="B70"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="27"/>
+      <c r="X70" s="73"/>
+      <c r="Y70" s="74"/>
+      <c r="Z70" s="1"/>
+    </row>
+    <row r="71" spans="2:26">
+      <c r="B71"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="28"/>
+      <c r="X71" s="73"/>
+      <c r="Y71" s="74"/>
+      <c r="Z71" s="1"/>
+    </row>
+    <row r="72" spans="2:26">
+      <c r="B72"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="27"/>
+      <c r="X72" s="73"/>
+      <c r="Y72" s="74"/>
+      <c r="Z72" s="1"/>
+    </row>
+    <row r="73" spans="2:26">
+      <c r="B73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="27"/>
+      <c r="X73" s="73"/>
+      <c r="Y73" s="74"/>
+      <c r="Z73" s="1"/>
+    </row>
+    <row r="74" spans="2:26">
+      <c r="B74"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="27"/>
+      <c r="X74" s="73"/>
+      <c r="Y74" s="74"/>
+      <c r="Z74" s="1"/>
+    </row>
+    <row r="75" spans="2:26">
+      <c r="B75"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="27"/>
+      <c r="X75" s="73"/>
+      <c r="Y75" s="74"/>
+      <c r="Z75" s="1"/>
+    </row>
+    <row r="76" spans="2:26">
+      <c r="B76"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="27"/>
+      <c r="X76" s="73"/>
+      <c r="Y76" s="74"/>
+      <c r="Z76" s="1"/>
+    </row>
+    <row r="77" spans="2:26">
+      <c r="B77"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="27"/>
+      <c r="X77" s="75"/>
+      <c r="Y77" s="76"/>
+      <c r="Z77" s="3">
+        <f>Z54+TIME(0,252,0)</f>
+        <v>0.86458333333333337</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26">
+      <c r="B78"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="27"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="2:26">
+      <c r="B79"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="28">
+        <f>E56+TIME(,252,0)</f>
+        <v>0.75624999999999987</v>
+      </c>
+      <c r="O79" s="3"/>
+      <c r="P79" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="C56:D79"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="X6:Y7"/>
+    <mergeCell ref="X9:Y10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Y23:Y31"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="X16:X24"/>
+    <mergeCell ref="Y18:Y20"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="X27:X29"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="X32:X40"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Y39:Y47"/>
+    <mergeCell ref="X52:Y53"/>
+    <mergeCell ref="X54:Y77"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="X50:Y51"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="36">
+      <c r="A1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+    </row>
+    <row r="2" spans="1:26" ht="37" thickBot="1">
+      <c r="A2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="45">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F2" s="46">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G2" s="47">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+    </row>
+    <row r="3" spans="1:26" ht="18">
+      <c r="A3" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+    </row>
+    <row r="4" spans="1:26" ht="28">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="53"/>
+    </row>
+    <row r="5" spans="1:26" ht="18">
+      <c r="A5" s="39"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="43"/>
+    </row>
+    <row r="6" spans="1:26" ht="18">
+      <c r="A6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="56">
+        <v>0.34375</v>
+      </c>
+      <c r="X6" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="57">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="18">
+      <c r="A7" s="39"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="59"/>
+    </row>
+    <row r="8" spans="1:26" ht="18">
+      <c r="A8" s="39"/>
+      <c r="B8" s="60">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="125"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="59"/>
+    </row>
+    <row r="9" spans="1:26" ht="18">
+      <c r="A9" s="39"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="56">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="X9" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="56">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="18">
+      <c r="A10" s="39"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="59"/>
+    </row>
+    <row r="11" spans="1:26" ht="18">
+      <c r="A11" s="39"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="56">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="X11" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="43"/>
+    </row>
+    <row r="12" spans="1:26" ht="18">
+      <c r="A12" s="39"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="43"/>
+    </row>
+    <row r="13" spans="1:26" ht="18">
+      <c r="A13" s="39"/>
+      <c r="B13" s="60">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="C13" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="43"/>
+    </row>
+    <row r="14" spans="1:26" ht="18">
+      <c r="A14" s="39"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="56">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="X14" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="43"/>
+    </row>
+    <row r="15" spans="1:26" ht="18">
+      <c r="A15" s="39"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="43"/>
+    </row>
+    <row r="16" spans="1:26" ht="18">
+      <c r="A16" s="39"/>
+      <c r="B16" s="60">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="C16" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="56">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="X16" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="43"/>
+    </row>
+    <row r="17" spans="1:26" ht="18">
+      <c r="A17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="66">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="43"/>
+    </row>
+    <row r="18" spans="1:26" ht="18">
+      <c r="A18" s="39"/>
+      <c r="B18" s="60">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="61"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="67">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="18">
+      <c r="A19" s="39"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="66">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="43"/>
+    </row>
+    <row r="20" spans="1:26" ht="18">
+      <c r="A20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="43"/>
+    </row>
+    <row r="21" spans="1:26" ht="18">
+      <c r="A21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="67">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="18">
+      <c r="A22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="110"/>
+      <c r="Z22" s="43"/>
+    </row>
+    <row r="23" spans="1:26" ht="18">
+      <c r="A23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="67">
+        <v>0.46319444444444446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="18">
+      <c r="A24" s="39"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="66">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="43"/>
+    </row>
+    <row r="25" spans="1:26" ht="18">
+      <c r="A25" s="39"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="56">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="X25" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="43"/>
+    </row>
+    <row r="26" spans="1:26" ht="18">
+      <c r="A26" s="39"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="113"/>
+      <c r="Z26" s="43"/>
+    </row>
+    <row r="27" spans="1:26" ht="18">
+      <c r="A27" s="39"/>
+      <c r="B27" s="60">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="C27" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="108"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="56">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="X27" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="43"/>
+    </row>
+    <row r="28" spans="1:26" ht="18">
+      <c r="A28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="113"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="43"/>
+    </row>
+    <row r="29" spans="1:26" ht="18">
+      <c r="A29" s="39"/>
+      <c r="B29" s="60">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="108"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="43"/>
+    </row>
+    <row r="30" spans="1:26" ht="38" customHeight="1">
+      <c r="A30" s="39"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="56">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="X30" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="43"/>
+    </row>
+    <row r="31" spans="1:26" ht="18">
+      <c r="A31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="43"/>
+    </row>
+    <row r="32" spans="1:26" ht="18">
+      <c r="A32" s="39"/>
+      <c r="B32" s="60">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="C32" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="109"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="56">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="X32" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z32" s="67">
+        <v>0.52569444444444446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="18">
+      <c r="A33" s="39"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="66">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="106"/>
+      <c r="Z33" s="43"/>
+    </row>
+    <row r="34" spans="1:26" ht="18">
+      <c r="A34" s="39"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="67">
+        <v>0.54097222222222219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="38" customHeight="1">
+      <c r="A35" s="39"/>
+      <c r="B35" s="60">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="C35" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="66">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="43"/>
+    </row>
+    <row r="36" spans="1:26" ht="18">
+      <c r="A36" s="39"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="113"/>
+      <c r="Y36" s="106"/>
+      <c r="Z36" s="43"/>
+    </row>
+    <row r="37" spans="1:26" ht="38" customHeight="1">
+      <c r="A37" s="39"/>
+      <c r="B37" s="60">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="C37" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="118"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z37" s="67">
+        <v>0.56180555555555556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="18">
+      <c r="A38" s="39"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="66">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="113"/>
+      <c r="Y38" s="115"/>
+      <c r="Z38" s="43"/>
+    </row>
+    <row r="39" spans="1:26" ht="18">
+      <c r="A39" s="39"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="113"/>
+      <c r="Y39" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="67">
+        <v>0.57708333333333328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="18">
+      <c r="A40" s="39"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="106"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="43"/>
+    </row>
+    <row r="41" spans="1:26" ht="38" customHeight="1">
+      <c r="A41" s="39"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="66">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="56">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="X41" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="43"/>
+    </row>
+    <row r="42" spans="1:26" ht="18">
+      <c r="A42" s="39"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="113"/>
+      <c r="Z42" s="43"/>
+    </row>
+    <row r="43" spans="1:26" ht="18">
+      <c r="A43" s="39"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="66">
+        <v>0.65</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="56">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="43"/>
+    </row>
+    <row r="44" spans="1:26" ht="18">
+      <c r="A44" s="39"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="43"/>
+    </row>
+    <row r="45" spans="1:26" ht="18">
+      <c r="A45" s="39"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="43"/>
+    </row>
+    <row r="46" spans="1:26" ht="18">
+      <c r="A46" s="39"/>
+      <c r="B46" s="60">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="C46" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="108"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="113"/>
+      <c r="Z46" s="43"/>
+    </row>
+    <row r="47" spans="1:26" ht="18">
+      <c r="A47" s="39"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="106"/>
+      <c r="Z47" s="43"/>
+    </row>
+    <row r="48" spans="1:26" ht="18">
+      <c r="A48" s="39"/>
+      <c r="B48" s="60">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="108"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z48" s="67">
+        <v>0.63958333333333328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="18">
+      <c r="A49" s="39"/>
+      <c r="B49" s="60">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="C49" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="108"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="110"/>
+      <c r="Z49" s="43"/>
+    </row>
+    <row r="50" spans="1:26" ht="18">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y50" s="100"/>
+      <c r="Z50" s="67">
+        <v>0.65486111111111112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="18">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="112"/>
+      <c r="Z51" s="43"/>
+    </row>
+    <row r="52" spans="1:26" ht="18">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="66">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y52" s="100"/>
+      <c r="Z52" s="67">
+        <v>0.67222222222222217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="18">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="111"/>
+      <c r="Y53" s="112"/>
+      <c r="Z53" s="43"/>
+    </row>
+    <row r="54" spans="1:26" ht="18">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="66">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y54" s="100"/>
+      <c r="Z54" s="67">
+        <v>0.68958333333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="18">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="66">
+        <v>0.73472222222222217</v>
+      </c>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="101"/>
+      <c r="Y55" s="102"/>
+      <c r="Z55" s="43"/>
+    </row>
+    <row r="56" spans="1:26" ht="18">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="100"/>
+      <c r="E56" s="66">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="101"/>
+      <c r="Y56" s="102"/>
+      <c r="Z56" s="43"/>
+    </row>
+    <row r="57" spans="1:26" ht="18">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="101"/>
+      <c r="Y57" s="102"/>
+      <c r="Z57" s="43"/>
+    </row>
+    <row r="58" spans="1:26" ht="18">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="101"/>
+      <c r="Y58" s="102"/>
+      <c r="Z58" s="43"/>
+    </row>
+    <row r="59" spans="1:26" ht="18">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="101"/>
+      <c r="Y59" s="102"/>
+      <c r="Z59" s="43"/>
+    </row>
+    <row r="60" spans="1:26" ht="18">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="101"/>
+      <c r="Y60" s="102"/>
+      <c r="Z60" s="43"/>
+    </row>
+    <row r="61" spans="1:26" ht="18">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="101"/>
+      <c r="Y61" s="102"/>
+      <c r="Z61" s="43"/>
+    </row>
+    <row r="62" spans="1:26" ht="18">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="101"/>
+      <c r="Y62" s="102"/>
+      <c r="Z62" s="43"/>
+    </row>
+    <row r="63" spans="1:26" ht="18">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="101"/>
+      <c r="Y63" s="102"/>
+      <c r="Z63" s="43"/>
+    </row>
+    <row r="64" spans="1:26" ht="18">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="101"/>
+      <c r="Y64" s="102"/>
+      <c r="Z64" s="43"/>
+    </row>
+    <row r="65" spans="1:26" ht="18">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="101"/>
+      <c r="Y65" s="102"/>
+      <c r="Z65" s="67"/>
+    </row>
+    <row r="66" spans="1:26" ht="18">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="101"/>
+      <c r="Y66" s="102"/>
+      <c r="Z66" s="43"/>
+    </row>
+    <row r="67" spans="1:26" ht="18">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="101"/>
+      <c r="Y67" s="102"/>
+      <c r="Z67" s="43"/>
+    </row>
+    <row r="68" spans="1:26" ht="18">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="101"/>
+      <c r="Y68" s="102"/>
+      <c r="Z68" s="43"/>
+    </row>
+    <row r="69" spans="1:26" ht="18">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="101"/>
+      <c r="Y69" s="102"/>
+      <c r="Z69" s="43"/>
+    </row>
+    <row r="70" spans="1:26" ht="18">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="101"/>
+      <c r="Y70" s="102"/>
+      <c r="Z70" s="43"/>
+    </row>
+    <row r="71" spans="1:26" ht="18">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="101"/>
+      <c r="Y71" s="102"/>
+      <c r="Z71" s="43"/>
+    </row>
+    <row r="72" spans="1:26" ht="18">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="39"/>
+      <c r="X72" s="101"/>
+      <c r="Y72" s="102"/>
+      <c r="Z72" s="43"/>
+    </row>
+    <row r="73" spans="1:26" ht="18">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="102"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="101"/>
+      <c r="Y73" s="102"/>
+      <c r="Z73" s="43"/>
+    </row>
+    <row r="74" spans="1:26" ht="18">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="39"/>
+      <c r="X74" s="101"/>
+      <c r="Y74" s="102"/>
+      <c r="Z74" s="43"/>
+    </row>
+    <row r="75" spans="1:26" ht="18">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="101"/>
+      <c r="Y75" s="102"/>
+      <c r="Z75" s="43"/>
+    </row>
+    <row r="76" spans="1:26" ht="18">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="101"/>
+      <c r="Y76" s="102"/>
+      <c r="Z76" s="43"/>
+    </row>
+    <row r="77" spans="1:26" ht="18">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="101"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="39"/>
+      <c r="X77" s="103"/>
+      <c r="Y77" s="104"/>
+      <c r="Z77" s="67">
+        <v>0.86458333333333337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="18">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="49"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="39"/>
+      <c r="Z78" s="39"/>
+    </row>
+    <row r="79" spans="1:26" ht="18">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="103"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="66">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="67"/>
+      <c r="P79" s="49"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
+      <c r="Z79" s="39"/>
+    </row>
+    <row r="80" spans="1:26" ht="18">
+      <c r="A80" s="39"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="39"/>
+      <c r="X80" s="39"/>
+      <c r="Y80" s="39"/>
+      <c r="Z80" s="39"/>
+    </row>
+    <row r="81" spans="1:26" ht="18">
+      <c r="A81" s="39"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="39"/>
+      <c r="Z81" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="X6:Y7"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="X9:Y10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="X16:X24"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="Y18:Y20"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="Y23:Y31"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="X27:X29"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="X32:X40"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="Y39:Y47"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="X54:Y77"/>
+    <mergeCell ref="C56:D79"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="D43:D51"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="X50:Y51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="X52:Y53"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2457,19 +6507,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z78"/>
+  <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="46"/>
+    <col min="2" max="2" width="10.83203125" style="21"/>
     <col min="3" max="4" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="45.5" customWidth="1"/>
@@ -2479,995 +6529,1005 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="37" thickBot="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="35">
         <v>0.3576388888888889</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <f>E2+TIME(,30,)</f>
         <v>0.37847222222222221</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <f>E2+TIME(1,30,0)</f>
         <v>0.4201388888888889</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:26" s="10" customFormat="1" ht="19" customHeight="1">
-      <c r="B4" s="47"/>
-      <c r="E4" s="46"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="19" customHeight="1">
+      <c r="B4" s="22"/>
+      <c r="E4" s="36"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="12"/>
+      <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="B6" s="47"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="33"/>
       <c r="W6" s="2">
         <v>0.34375</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="8">
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="7">
         <f>W6</f>
         <v>0.34375</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="5"/>
+      <c r="E7" s="32"/>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="48">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="53">
-        <f>B8</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="W8" s="2">
+      <c r="B8" s="23">
+        <f>B13-TIME(,50,)</f>
+        <v>0.40555555555555567</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="27"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="23"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="27"/>
+      <c r="W9" s="2">
         <f>W6+TIME(0,25,0)</f>
         <v>0.3611111111111111</v>
       </c>
-      <c r="X8" s="20" t="s">
+      <c r="X9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="2">
-        <f>W8</f>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="2">
+        <f>W9</f>
         <v>0.3611111111111111</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="52"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="5"/>
-    </row>
     <row r="10" spans="1:26">
-      <c r="B10" s="48">
-        <f>B8+TIME(0,25,0)</f>
-        <v>0.30902777777777779</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="53">
-        <f>B10</f>
-        <v>0.30902777777777779</v>
-      </c>
-      <c r="W10" s="2">
-        <f>W8+TIME(0,25,0)</f>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="27"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="B11" s="23"/>
+      <c r="C11" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="27"/>
+      <c r="W11" s="2">
+        <f>W9+TIME(0,25,0)</f>
         <v>0.37847222222222221</v>
       </c>
-      <c r="X10" s="31" t="s">
+      <c r="X11" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="52"/>
-      <c r="X11" s="45"/>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="B12" s="48">
-        <f>B10+TIME(0,25,0)</f>
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="27"/>
+      <c r="X12" s="82"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="23">
+        <f>B16-TIME(,30,)</f>
+        <v>0.44027777777777788</v>
+      </c>
+      <c r="C13" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="X12" s="32"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" ht="14" customHeight="1">
-      <c r="C13" s="29"/>
-      <c r="E13" s="52"/>
-      <c r="W13" s="2">
-        <f>W10+TIME(0,30,0)</f>
+      <c r="E13" s="27"/>
+      <c r="X13" s="78"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" ht="14" customHeight="1">
+      <c r="C14" s="89"/>
+      <c r="E14" s="27"/>
+      <c r="W14" s="2">
+        <f>W11+TIME(0,30,0)</f>
         <v>0.39930555555555552</v>
       </c>
-      <c r="X13" s="31" t="s">
+      <c r="X14" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" ht="13" customHeight="1">
-      <c r="C14" s="30"/>
-      <c r="E14" s="52"/>
-      <c r="X14" s="45"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="14" customHeight="1">
-      <c r="B15" s="48">
-        <f>B12+TIME(,20,0)</f>
-        <v>0.34027777777777779</v>
-      </c>
-      <c r="C15" s="31" t="s">
+    <row r="15" spans="1:26" ht="13" customHeight="1">
+      <c r="C15" s="90"/>
+      <c r="E15" s="27"/>
+      <c r="X15" s="82"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" ht="14" customHeight="1">
+      <c r="B16" s="23">
+        <f>B18-TIME(,20,)</f>
+        <v>0.46111111111111119</v>
+      </c>
+      <c r="C16" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="W15" s="2">
-        <f>W13+TIME(0,20,0)</f>
+      <c r="E16" s="27"/>
+      <c r="W16" s="2">
+        <f>W14+TIME(0,20,0)</f>
         <v>0.41319444444444442</v>
       </c>
-      <c r="X15" s="31" t="s">
+      <c r="X16" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="C16" s="45"/>
-      <c r="D16" s="26" t="s">
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="2:26" ht="18" customHeight="1">
+      <c r="C17" s="82"/>
+      <c r="D17" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="53">
-        <f>B15+TIME(0,10,0)</f>
-        <v>0.34722222222222221</v>
-      </c>
-      <c r="X16" s="45"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="2:26">
-      <c r="B17" s="48">
-        <f>B15+TIME(0,20,0)</f>
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="E17" s="28">
+        <f>E19-TIME(,20,)</f>
+        <v>0.4652777777777779</v>
+      </c>
+      <c r="X17" s="82"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="2:26">
+      <c r="B18" s="23">
+        <f>B27-TIME(,90,)</f>
+        <v>0.47500000000000009</v>
+      </c>
+      <c r="C18" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="52"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="31" t="s">
+      <c r="D18" s="92"/>
+      <c r="E18" s="27"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z17" s="3">
-        <f>W15+TIME(0,20,0)</f>
+      <c r="Z18" s="3">
+        <f>W16+TIME(0,20,0)</f>
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="18" spans="2:26">
-      <c r="C18" s="34"/>
-      <c r="D18" s="28" t="s">
+    <row r="19" spans="2:26">
+      <c r="C19" s="80"/>
+      <c r="D19" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="53">
-        <f>E16+TIME(,20,0)</f>
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="2:26">
-      <c r="C19" s="34"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="52"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="32"/>
+      <c r="E19" s="28">
+        <f>E22-TIME(,30,)</f>
+        <v>0.4791666666666668</v>
+      </c>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="2:26">
-      <c r="C20" s="34"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="52"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="31" t="s">
+      <c r="C20" s="80"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="27"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="2:26">
+      <c r="C21" s="80"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="27"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Z20" s="3">
-        <f>Z17+TIME(0,30,0)</f>
+      <c r="Z21" s="3">
+        <f>Z18+TIME(0,30,0)</f>
         <v>0.44791666666666663</v>
       </c>
     </row>
-    <row r="21" spans="2:26">
-      <c r="C21" s="34"/>
-      <c r="D21" s="31" t="s">
+    <row r="22" spans="2:26">
+      <c r="C22" s="80"/>
+      <c r="D22" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="53">
-        <f>E18+TIME(0,30,0)</f>
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="2:26">
-      <c r="C22" s="34"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="52"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="31" t="s">
+      <c r="E22" s="28">
+        <f>E24-TIME(,22,)</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="2:26">
+      <c r="C23" s="80"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="27"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z22" s="3">
-        <f>Z20+TIME(0,22,0)</f>
+      <c r="Z23" s="3">
+        <f>Z21+TIME(0,22,0)</f>
         <v>0.46319444444444441</v>
       </c>
     </row>
-    <row r="23" spans="2:26">
-      <c r="C23" s="34"/>
-      <c r="D23" s="33" t="s">
+    <row r="24" spans="2:26">
+      <c r="C24" s="80"/>
+      <c r="D24" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="53">
-        <f>E21+TIME(0,22,0)</f>
-        <v>0.3972222222222222</v>
-      </c>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="2:26">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="52"/>
-      <c r="W24" s="2">
-        <f>W15+TIME(0,90,0)</f>
+      <c r="E24" s="28">
+        <f>E33-TIME(,90,)</f>
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="2:26">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="27"/>
+      <c r="W25" s="2">
+        <f>W16+TIME(0,90,0)</f>
         <v>0.47569444444444442</v>
       </c>
-      <c r="X24" s="31" t="s">
+      <c r="X25" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="2:26">
-      <c r="C25" s="35"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="52"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="45"/>
+      <c r="Y25" s="82"/>
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="2:26">
-      <c r="B26" s="48">
-        <f>B17+TIME(0,90,0)</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="81"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="27"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="2:26">
+      <c r="B27" s="23">
+        <f>B29-TIME(,20,)</f>
+        <v>0.53750000000000009</v>
+      </c>
+      <c r="C27" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="52"/>
-      <c r="W26" s="2">
-        <f>W24+TIME(0,20,0)</f>
+      <c r="D27" s="80"/>
+      <c r="E27" s="27"/>
+      <c r="W27" s="2">
+        <f>W25+TIME(0,20,0)</f>
         <v>0.48958333333333331</v>
       </c>
-      <c r="X26" s="31" t="s">
+      <c r="X27" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="2:26">
-      <c r="C27" s="32"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="52"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
+      <c r="Y27" s="82"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="2:26">
-      <c r="B28" s="48">
-        <f>B26+TIME(0,20,0)</f>
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="78"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="27"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="2:26">
+      <c r="B29" s="23">
+        <f>B32-TIME(,30,)</f>
+        <v>0.55138888888888893</v>
+      </c>
+      <c r="C29" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="52"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="2:26">
-      <c r="C29" s="37"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="52"/>
-      <c r="W29" s="2">
-        <f>W26+TIME(0,30,0)</f>
+      <c r="D29" s="80"/>
+      <c r="E29" s="27"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="2:26">
+      <c r="C30" s="86"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="27"/>
+      <c r="W30" s="2">
+        <f>W27+TIME(0,30,0)</f>
         <v>0.51041666666666663</v>
       </c>
-      <c r="X29" s="39" t="s">
+      <c r="X30" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="2:26">
-      <c r="C30" s="38"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="52"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="32"/>
+      <c r="Y30" s="82"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="2:26">
-      <c r="B31" s="48">
-        <f>B28+TIME(,30,)</f>
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="87"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="27"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="B32" s="23">
+        <f>B35-TIME(,30,)</f>
+        <v>0.5722222222222223</v>
+      </c>
+      <c r="C32" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="52"/>
-      <c r="W31" s="2">
-        <f>W29+TIME(0,20,0)</f>
+      <c r="D32" s="81"/>
+      <c r="E32" s="27"/>
+      <c r="W32" s="2">
+        <f>W30+TIME(0,20,0)</f>
         <v>0.52430555555555547</v>
       </c>
-      <c r="X31" s="31" t="s">
+      <c r="X32" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Y31" s="31" t="s">
+      <c r="Y32" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="Z31" s="3">
-        <f>Z22+TIME(0,90,0)</f>
+      <c r="Z32" s="3">
+        <f>Z23+TIME(0,90,0)</f>
         <v>0.52569444444444446</v>
       </c>
     </row>
-    <row r="32" spans="2:26">
-      <c r="C32" s="29"/>
-      <c r="D32" s="31" t="s">
+    <row r="33" spans="2:26">
+      <c r="C33" s="89"/>
+      <c r="D33" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="53">
-        <f>E23+TIME(0,90,0)</f>
-        <v>0.4597222222222222</v>
-      </c>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="2:26" ht="14" customHeight="1">
-      <c r="C33" s="30"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="52"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="31" t="s">
+      <c r="E33" s="28">
+        <f>E35-TIME(,22,)</f>
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="2:26" ht="14" customHeight="1">
+      <c r="C34" s="90"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="27"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z33" s="3">
-        <f>Z31+TIME(0,22,0)</f>
+      <c r="Z34" s="3">
+        <f>Z32+TIME(0,22,0)</f>
         <v>0.54097222222222219</v>
       </c>
     </row>
-    <row r="34" spans="2:26">
-      <c r="B34" s="48">
-        <f>B31+TIME(0,30,0)</f>
-        <v>0.47222222222222221</v>
-      </c>
-      <c r="C34" s="39" t="s">
+    <row r="35" spans="2:26">
+      <c r="B35" s="23">
+        <f>B37-TIME(,20,)</f>
+        <v>0.59305555555555567</v>
+      </c>
+      <c r="C35" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D35" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="53">
-        <f>E32 +TIME(,22,)</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="2:26">
-      <c r="C35" s="40"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="52"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="32"/>
+      <c r="E35" s="28">
+        <f>E38-TIME(,30,)</f>
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="48">
-        <f>B34+TIME(0,20,0)</f>
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="84"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="27"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="2:26">
+      <c r="B37" s="23">
+        <f>B46-TIME(,90,)</f>
+        <v>0.60694444444444451</v>
+      </c>
+      <c r="C37" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="52"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="39" t="s">
+      <c r="D37" s="87"/>
+      <c r="E37" s="27"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="Z36" s="3">
-        <f>Z33+TIME(0,30,0)</f>
+      <c r="Z37" s="3">
+        <f>Z34+TIME(0,30,0)</f>
         <v>0.56180555555555556</v>
       </c>
     </row>
-    <row r="37" spans="2:26">
-      <c r="C37" s="34"/>
-      <c r="D37" s="28" t="s">
+    <row r="38" spans="2:26">
+      <c r="C38" s="80"/>
+      <c r="D38" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="53">
-        <f>E34+TIME(,30,)</f>
-        <v>0.49583333333333329</v>
-      </c>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="2:26">
-      <c r="C38" s="34"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="52"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="31" t="s">
+      <c r="E38" s="28">
+        <f>E41-TIME(,30,)</f>
+        <v>0.61388888888888893</v>
+      </c>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="2:26">
+      <c r="C39" s="80"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="27"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z38" s="3">
-        <f>Z36+TIME(0,22,0)</f>
+      <c r="Z39" s="3">
+        <f>Z37+TIME(0,22,0)</f>
         <v>0.57708333333333328</v>
       </c>
     </row>
-    <row r="39" spans="2:26">
-      <c r="C39" s="34"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="52"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="1"/>
-    </row>
     <row r="40" spans="2:26">
-      <c r="C40" s="34"/>
-      <c r="D40" s="39" t="s">
+      <c r="C40" s="80"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="27"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="2:26">
+      <c r="C41" s="80"/>
+      <c r="D41" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="53">
-        <f>E37+TIME(0,30,0)</f>
-        <v>0.51666666666666661</v>
-      </c>
-      <c r="W40" s="2">
-        <f>W31+TIME(0,90,0)</f>
+      <c r="E41" s="28">
+        <f>E43-TIME(,22,)</f>
+        <v>0.6347222222222223</v>
+      </c>
+      <c r="W41" s="2">
+        <f>W32+TIME(0,90,0)</f>
         <v>0.58680555555555547</v>
       </c>
-      <c r="X40" s="31" t="s">
+      <c r="X41" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="2:26">
-      <c r="C41" s="34"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="52"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="45"/>
+      <c r="Y41" s="82"/>
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="2:26">
-      <c r="C42" s="34"/>
-      <c r="D42" s="33" t="s">
+      <c r="C42" s="80"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="27"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="2:26">
+      <c r="C43" s="80"/>
+      <c r="D43" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="53">
-        <f>E40+TIME(0,22,0)</f>
-        <v>0.53194444444444433</v>
-      </c>
-      <c r="W42" s="2">
-        <f>W40+TIME(0,24,0)</f>
+      <c r="E43" s="28">
+        <f>E52-TIME(,90,)</f>
+        <v>0.65</v>
+      </c>
+      <c r="W43" s="2">
+        <f>W41+TIME(0,24,0)</f>
         <v>0.60347222222222219</v>
       </c>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="2:26">
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="52"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="45"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="82"/>
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="C44" s="35"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="52"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="45"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="27"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="82"/>
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="2:26">
-      <c r="B45" s="48">
-        <f>B36+TIME(0,90,0)</f>
-        <v>0.54861111111111116</v>
-      </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="81"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="27"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="B46" s="23">
+        <f>B48-TIME(,20,)</f>
+        <v>0.66944444444444451</v>
+      </c>
+      <c r="C46" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="52"/>
-      <c r="Y45" s="45"/>
-      <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="2:26">
-      <c r="C46" s="32"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="52"/>
-      <c r="Y46" s="32"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="27"/>
+      <c r="Y46" s="82"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="2:26">
-      <c r="B47" s="48">
-        <f>B45+TIME(0,20,0)</f>
-        <v>0.5625</v>
-      </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="78"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="27"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="2:26">
+      <c r="B48" s="23">
+        <f>B49-TIME(,10,)</f>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="52"/>
-      <c r="Y47" s="31" t="s">
+      <c r="D48" s="80"/>
+      <c r="E48" s="27"/>
+      <c r="Y48" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="Z47" s="3">
-        <f>Z38+TIME(0,90,0)</f>
+      <c r="Z48" s="3">
+        <f>Z39+TIME(0,90,0)</f>
         <v>0.63958333333333328</v>
       </c>
     </row>
-    <row r="48" spans="2:26">
-      <c r="B48" s="48">
-        <f>B47+TIME(,10,)</f>
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="C48" s="15" t="s">
+    <row r="49" spans="2:26">
+      <c r="B49" s="23">
+        <f>E52-TIME(,32,)</f>
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="52"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="3:26" customFormat="1">
-      <c r="D49" s="34"/>
-      <c r="E49" s="52"/>
-      <c r="O49" s="1"/>
-      <c r="X49" s="20" t="s">
+      <c r="D49" s="80"/>
+      <c r="E49" s="27"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="2:26">
+      <c r="B50"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="27"/>
+      <c r="X50" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="3">
-        <f>Z47+TIME(0,22,0)</f>
+      <c r="Y50" s="72"/>
+      <c r="Z50" s="3">
+        <f>Z48+TIME(0,22,0)</f>
         <v>0.65486111111111101</v>
       </c>
     </row>
-    <row r="50" spans="3:26" customFormat="1">
-      <c r="D50" s="35"/>
-      <c r="E50" s="52"/>
-      <c r="O50" s="1"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="3:26" customFormat="1">
-      <c r="D51" s="31" t="s">
+    <row r="51" spans="2:26">
+      <c r="B51"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="27"/>
+      <c r="X51" s="75"/>
+      <c r="Y51" s="76"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="2:26">
+      <c r="B52"/>
+      <c r="D52" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="53">
-        <f>E42+TIME(0,90,0)</f>
-        <v>0.59444444444444433</v>
-      </c>
-      <c r="O51" s="1"/>
-      <c r="X51" s="20" t="s">
+      <c r="E52" s="28">
+        <f>E54-TIME(,22,)</f>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="X52" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="3">
-        <f>Z49+TIME(0,25,0)</f>
+      <c r="Y52" s="72"/>
+      <c r="Z52" s="3">
+        <f>Z50+TIME(0,25,0)</f>
         <v>0.67222222222222217</v>
       </c>
     </row>
-    <row r="52" spans="3:26" customFormat="1">
-      <c r="D52" s="32"/>
-      <c r="E52" s="52"/>
-      <c r="O52" s="1"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="3:26" customFormat="1">
-      <c r="D53" s="14" t="s">
+    <row r="53" spans="2:26">
+      <c r="B53"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="27"/>
+      <c r="X53" s="75"/>
+      <c r="Y53" s="76"/>
+      <c r="Z53" s="1"/>
+    </row>
+    <row r="54" spans="2:26">
+      <c r="B54"/>
+      <c r="D54" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="53">
-        <f>E51+TIME(0,10,0)</f>
-        <v>0.60138888888888875</v>
-      </c>
-      <c r="O53" s="1"/>
-      <c r="X53" s="20" t="s">
+      <c r="E54" s="28">
+        <f>E55-TIME(,10,)</f>
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="X54" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="3">
-        <f>Z51+TIME(0,25,0)</f>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="3">
+        <f>Z52+TIME(0,25,0)</f>
         <v>0.68958333333333333</v>
       </c>
     </row>
-    <row r="54" spans="3:26" customFormat="1">
-      <c r="D54" s="15" t="s">
+    <row r="55" spans="2:26">
+      <c r="B55"/>
+      <c r="D55" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="53">
-        <f>E53+TIME(0,10,0)</f>
-        <v>0.60833333333333317</v>
-      </c>
-      <c r="O54" s="1"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="3:26" customFormat="1">
-      <c r="C55" s="20" t="s">
+      <c r="E55" s="28">
+        <f>E56-TIME(,10,)</f>
+        <v>0.73472222222222217</v>
+      </c>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="1"/>
+    </row>
+    <row r="56" spans="2:26">
+      <c r="B56"/>
+      <c r="C56" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="53">
-        <f>E54+TIME(0,10,0)</f>
-        <v>0.61527777777777759</v>
-      </c>
-      <c r="O55" s="1"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="3:26" customFormat="1">
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="52"/>
-      <c r="O56" s="1"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="23"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="28">
+        <f>E79-TIME(,252,)</f>
+        <v>0.74166666666666659</v>
+      </c>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="74"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="3:26" customFormat="1">
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="53"/>
-      <c r="O57" s="1"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="23"/>
+    <row r="57" spans="2:26">
+      <c r="B57"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="27"/>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="74"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="3:26" customFormat="1">
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="52"/>
-      <c r="O58" s="1"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="23"/>
+    <row r="58" spans="2:26">
+      <c r="B58"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="28"/>
+      <c r="X58" s="73"/>
+      <c r="Y58" s="74"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="3:26" customFormat="1">
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="53"/>
-      <c r="O59" s="1"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="23"/>
+    <row r="59" spans="2:26">
+      <c r="B59"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="27"/>
+      <c r="X59" s="73"/>
+      <c r="Y59" s="74"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="3:26" customFormat="1">
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="52"/>
-      <c r="O60" s="1"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="23"/>
+    <row r="60" spans="2:26">
+      <c r="B60"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="28"/>
+      <c r="X60" s="73"/>
+      <c r="Y60" s="74"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="3:26" customFormat="1">
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="52"/>
-      <c r="O61" s="1"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="23"/>
+    <row r="61" spans="2:26">
+      <c r="B61"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="27"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="74"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="3:26" customFormat="1">
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="52"/>
-      <c r="O62" s="1"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="23"/>
+    <row r="62" spans="2:26">
+      <c r="B62"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="27"/>
+      <c r="X62" s="73"/>
+      <c r="Y62" s="74"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="3:26" customFormat="1">
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="52"/>
-      <c r="O63" s="1"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="23"/>
+    <row r="63" spans="2:26">
+      <c r="B63"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="27"/>
+      <c r="X63" s="73"/>
+      <c r="Y63" s="74"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="3:26" customFormat="1">
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="52"/>
-      <c r="O64" s="1"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="3"/>
-    </row>
-    <row r="65" spans="3:26" customFormat="1">
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="52"/>
-      <c r="O65" s="1"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="23"/>
-      <c r="Z65" s="1"/>
-    </row>
-    <row r="66" spans="3:26" customFormat="1">
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="52"/>
-      <c r="O66" s="1"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="23"/>
+    <row r="64" spans="2:26">
+      <c r="B64"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="27"/>
+      <c r="X64" s="73"/>
+      <c r="Y64" s="74"/>
+      <c r="Z64" s="1"/>
+    </row>
+    <row r="65" spans="2:26">
+      <c r="B65"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="27"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="74"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="2:26">
+      <c r="B66"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="27"/>
+      <c r="X66" s="73"/>
+      <c r="Y66" s="74"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="3:26" customFormat="1">
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="52"/>
-      <c r="O67" s="1"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="23"/>
+    <row r="67" spans="2:26">
+      <c r="B67"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="27"/>
+      <c r="X67" s="73"/>
+      <c r="Y67" s="74"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="3:26" customFormat="1">
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="52"/>
-      <c r="O68" s="1"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="23"/>
+    <row r="68" spans="2:26">
+      <c r="B68"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="27"/>
+      <c r="X68" s="73"/>
+      <c r="Y68" s="74"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="3:26" customFormat="1">
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="52"/>
-      <c r="O69" s="1"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="23"/>
+    <row r="69" spans="2:26">
+      <c r="B69"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="27"/>
+      <c r="X69" s="73"/>
+      <c r="Y69" s="74"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="3:26" customFormat="1">
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="53"/>
-      <c r="O70" s="1"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="23"/>
+    <row r="70" spans="2:26">
+      <c r="B70"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="27"/>
+      <c r="X70" s="73"/>
+      <c r="Y70" s="74"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="3:26" customFormat="1">
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="52"/>
-      <c r="O71" s="1"/>
-      <c r="X71" s="22"/>
-      <c r="Y71" s="23"/>
+    <row r="71" spans="2:26">
+      <c r="B71"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="28"/>
+      <c r="X71" s="73"/>
+      <c r="Y71" s="74"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="3:26" customFormat="1">
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="52"/>
-      <c r="O72" s="1"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="23"/>
+    <row r="72" spans="2:26">
+      <c r="B72"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="27"/>
+      <c r="X72" s="73"/>
+      <c r="Y72" s="74"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="3:26" customFormat="1">
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="52"/>
-      <c r="O73" s="1"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="23"/>
+    <row r="73" spans="2:26">
+      <c r="B73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="27"/>
+      <c r="X73" s="73"/>
+      <c r="Y73" s="74"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="3:26" customFormat="1">
-      <c r="C74" s="22"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="52"/>
-      <c r="O74" s="1"/>
-      <c r="X74" s="22"/>
-      <c r="Y74" s="23"/>
+    <row r="74" spans="2:26">
+      <c r="B74"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="27"/>
+      <c r="X74" s="73"/>
+      <c r="Y74" s="74"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="3:26" customFormat="1">
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="52"/>
-      <c r="O75" s="1"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="23"/>
+    <row r="75" spans="2:26">
+      <c r="B75"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="27"/>
+      <c r="X75" s="73"/>
+      <c r="Y75" s="74"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="3:26" customFormat="1">
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="52"/>
-      <c r="O76" s="1"/>
-      <c r="X76" s="24"/>
-      <c r="Y76" s="25"/>
-      <c r="Z76" s="3">
-        <f>Z53+TIME(0,252,0)</f>
+    <row r="76" spans="2:26">
+      <c r="B76"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="27"/>
+      <c r="X76" s="73"/>
+      <c r="Y76" s="74"/>
+      <c r="Z76" s="1"/>
+    </row>
+    <row r="77" spans="2:26">
+      <c r="B77"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="27"/>
+      <c r="X77" s="75"/>
+      <c r="Y77" s="76"/>
+      <c r="Z77" s="3">
+        <f>Z54+TIME(0,252,0)</f>
         <v>0.86458333333333337</v>
       </c>
     </row>
-    <row r="77" spans="3:26" customFormat="1">
-      <c r="C77" s="22"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="52"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="3:26" customFormat="1">
-      <c r="C78" s="24"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="53">
-        <f>E55+TIME(,252,0)</f>
-        <v>0.79027777777777763</v>
-      </c>
-      <c r="O78" s="3"/>
-      <c r="P78" s="13"/>
+    <row r="78" spans="2:26">
+      <c r="B78"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="27"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="2:26">
+      <c r="B79"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="28">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O79" s="3"/>
+      <c r="P79" s="12"/>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="X51:Y52"/>
-    <mergeCell ref="X53:Y76"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="Y47:Y48"/>
-    <mergeCell ref="X49:Y50"/>
-    <mergeCell ref="X31:X39"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Y33:Y35"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="Y38:Y46"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="X54:Y77"/>
+    <mergeCell ref="C56:D79"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="D43:D51"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="X50:Y51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="X52:Y53"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="Y39:Y47"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="X32:X40"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="X16:X24"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="Y18:Y20"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="Y23:Y31"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="X27:X29"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y32:Y33"/>
     <mergeCell ref="X6:Y7"/>
-    <mergeCell ref="X8:Y9"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Y22:Y30"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X15:X23"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="C55:D78"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="X9:Y10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="X14:X15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/Timing.xlsx
+++ b/data/Timing.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="0" windowWidth="25040" windowHeight="18160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="8" r:id="rId1"/>
-    <sheet name="Backwards Daily" sheetId="10" r:id="rId2"/>
-    <sheet name="Timing MASTER" sheetId="7" r:id="rId3"/>
+    <sheet name="Timing MASTER" sheetId="7" r:id="rId2"/>
+    <sheet name="Backwards Daily" sheetId="10" r:id="rId3"/>
     <sheet name="Backwards calculation MASTER" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="36">
   <si>
     <t>Acclimate to temperature (30mins)</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Night before: Dry and weigh chambers, bobby pin on tube, preset incubator 1</t>
+  </si>
+  <si>
+    <t>Process air samples (3 x 21)*2 temps = 126 samples 190 mins)</t>
+  </si>
+  <si>
+    <t>Process air samples (3 x 21)*2 temps = 126 samples (190 mins)</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="351">
+  <cellStyleXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -748,8 +754,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -846,6 +854,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,7 +945,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="351">
+  <cellStyles count="353">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1107,6 +1121,7 @@
     <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1282,6 +1297,7 @@
     <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1576,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1673,10 +1689,10 @@
       <c r="W6" s="2">
         <v>0.34375</v>
       </c>
-      <c r="X6" s="38" t="s">
+      <c r="X6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="39"/>
+      <c r="Y6" s="41"/>
       <c r="Z6" s="7">
         <f>W6</f>
         <v>0.34375</v>
@@ -1693,114 +1709,114 @@
       <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="41"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="43"/>
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26">
       <c r="B8" s="23">
         <f>B11-TIME(,30,)</f>
-        <v>0.39166666666666666</v>
-      </c>
-      <c r="C8" s="42" t="s">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="27"/>
       <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="37"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="39"/>
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="23"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="28"/>
       <c r="W9" s="2">
         <f>W6+TIME(0,25,0)</f>
         <v>0.3611111111111111</v>
       </c>
-      <c r="X9" s="38" t="s">
+      <c r="X9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="39"/>
+      <c r="Y9" s="41"/>
       <c r="Z9" s="2">
         <f>W9</f>
         <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="27"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="41"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26">
       <c r="B11" s="23">
         <f>B13-TIME(,20,)</f>
-        <v>0.41249999999999998</v>
-      </c>
-      <c r="C11" s="42" t="s">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="28"/>
       <c r="W11" s="2">
         <f>W9+TIME(0,25,0)</f>
         <v>0.37847222222222221</v>
       </c>
-      <c r="X11" s="46" t="s">
+      <c r="X11" s="48" t="s">
         <v>0</v>
       </c>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="27"/>
-      <c r="X12" s="47"/>
+      <c r="X12" s="49"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26">
       <c r="B13" s="23">
-        <v>0.42638888888888887</v>
-      </c>
-      <c r="C13" s="49" t="s">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="27"/>
-      <c r="X13" s="48"/>
+      <c r="X13" s="50"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14" customHeight="1">
-      <c r="C14" s="50"/>
+      <c r="C14" s="52"/>
       <c r="E14" s="27"/>
       <c r="W14" s="2">
         <f>W11+TIME(0,30,0)</f>
         <v>0.39930555555555552</v>
       </c>
-      <c r="X14" s="46" t="s">
+      <c r="X14" s="48" t="s">
         <v>10</v>
       </c>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="13" customHeight="1">
-      <c r="C15" s="51"/>
+      <c r="C15" s="53"/>
       <c r="E15" s="27"/>
-      <c r="X15" s="47"/>
+      <c r="X15" s="49"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14" customHeight="1">
       <c r="B16" s="23">
-        <f>B13+TIME(,30,0)</f>
-        <v>0.44722222222222219</v>
-      </c>
-      <c r="C16" s="46" t="s">
+        <f>B13+TIME(,30,)</f>
+        <v>0.35</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="27"/>
@@ -1808,32 +1824,32 @@
         <f>W14+TIME(0,20,0)</f>
         <v>0.41319444444444442</v>
       </c>
-      <c r="X16" s="46" t="s">
+      <c r="X16" s="48" t="s">
         <v>1</v>
       </c>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="2:26" ht="18" customHeight="1">
-      <c r="C17" s="47"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="56" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="28">
         <f>B16+TIME(0,10,0)</f>
-        <v>0.45416666666666661</v>
-      </c>
-      <c r="X17" s="47"/>
+        <v>0.3569444444444444</v>
+      </c>
+      <c r="X17" s="49"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="23"/>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="27"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="46" t="s">
+      <c r="X18" s="49"/>
+      <c r="Y18" s="48" t="s">
         <v>0</v>
       </c>
       <c r="Z18" s="3">
@@ -1842,32 +1858,32 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="C19" s="57"/>
-      <c r="D19" s="49" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="51" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="28">
         <f>E17+TIME(,20,0)</f>
-        <v>0.4680555555555555</v>
-      </c>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
+        <v>0.37083333333333329</v>
+      </c>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="2:26">
-      <c r="C20" s="57"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="27"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="48"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="50"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="2:26">
-      <c r="C21" s="57"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="27"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="46" t="s">
+      <c r="X21" s="49"/>
+      <c r="Y21" s="48" t="s">
         <v>6</v>
       </c>
       <c r="Z21" s="3">
@@ -1876,24 +1892,24 @@
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="C22" s="57"/>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="59"/>
+      <c r="D22" s="48" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="28">
         <f>E19+TIME(0,30,0)</f>
-        <v>0.48888888888888882</v>
-      </c>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
+        <v>0.39166666666666661</v>
+      </c>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="2:26">
-      <c r="C23" s="57"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="27"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="46" t="s">
+      <c r="X23" s="49"/>
+      <c r="Y23" s="48" t="s">
         <v>1</v>
       </c>
       <c r="Z23" s="3">
@@ -1902,119 +1918,119 @@
       </c>
     </row>
     <row r="24" spans="2:26">
-      <c r="C24" s="57"/>
-      <c r="D24" s="56" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="58" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="47"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="49"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="2:26">
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="27"/>
       <c r="W25" s="2">
         <f>W16+TIME(0,90,0)</f>
         <v>0.47569444444444442</v>
       </c>
-      <c r="X25" s="46" t="s">
+      <c r="X25" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Y25" s="47"/>
+      <c r="Y25" s="49"/>
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="2:26">
-      <c r="C26" s="58"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="27"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="47"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="49"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="2:26">
       <c r="B27" s="23">
         <f>B16+TIME(0,90,0)</f>
-        <v>0.50972222222222219</v>
-      </c>
-      <c r="C27" s="46" t="s">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="57"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="27"/>
       <c r="W27" s="2">
         <f>W25+TIME(0,20,0)</f>
         <v>0.48958333333333331</v>
       </c>
-      <c r="X27" s="46" t="s">
+      <c r="X27" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="Y27" s="47"/>
+      <c r="Y27" s="49"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="2:26">
-      <c r="C28" s="48"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="27"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="2:26">
       <c r="B29" s="23">
         <f>B27+TIME(0,20,0)</f>
-        <v>0.52361111111111103</v>
-      </c>
-      <c r="C29" s="59" t="s">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="C29" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="57"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="27"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="47"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="49"/>
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="2:26">
-      <c r="C30" s="60"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="27"/>
       <c r="W30" s="2">
         <f>W27+TIME(0,30,0)</f>
         <v>0.51041666666666663</v>
       </c>
-      <c r="X30" s="62" t="s">
+      <c r="X30" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Y30" s="47"/>
+      <c r="Y30" s="49"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="2:26">
-      <c r="C31" s="61"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="27"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="48"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="50"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="2:26">
       <c r="B32" s="23">
         <f>B29+TIME(,30,)</f>
-        <v>0.5444444444444444</v>
-      </c>
-      <c r="C32" s="49" t="s">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="58"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="27"/>
       <c r="W32" s="2">
         <f>W30+TIME(0,20,0)</f>
         <v>0.52430555555555547</v>
       </c>
-      <c r="X32" s="46" t="s">
+      <c r="X32" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="Y32" s="46" t="s">
+      <c r="Y32" s="48" t="s">
         <v>7</v>
       </c>
       <c r="Z32" s="3">
@@ -2023,24 +2039,24 @@
       </c>
     </row>
     <row r="33" spans="2:26">
-      <c r="C33" s="50"/>
-      <c r="D33" s="46" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="48" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="28">
         <f>E22+TIME(0,90,0)</f>
-        <v>0.55138888888888882</v>
-      </c>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="48"/>
+        <v>0.45416666666666661</v>
+      </c>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="50"/>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="2:26" ht="14" customHeight="1">
-      <c r="C34" s="51"/>
-      <c r="D34" s="48"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="27"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="46" t="s">
+      <c r="X34" s="49"/>
+      <c r="Y34" s="48" t="s">
         <v>0</v>
       </c>
       <c r="Z34" s="3">
@@ -2051,39 +2067,39 @@
     <row r="35" spans="2:26">
       <c r="B35" s="23">
         <f>B32+TIME(0,30,0)</f>
-        <v>0.56527777777777777</v>
-      </c>
-      <c r="C35" s="62" t="s">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="C35" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="61" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="28">
         <f>E33 +TIME(,22,)</f>
-        <v>0.56666666666666654</v>
-      </c>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
+        <v>0.46944444444444439</v>
+      </c>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="2:26">
-      <c r="C36" s="63"/>
-      <c r="D36" s="60"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="27"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="48"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="50"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="2:26">
       <c r="B37" s="23"/>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="61"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="27"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="62" t="s">
+      <c r="X37" s="49"/>
+      <c r="Y37" s="64" t="s">
         <v>8</v>
       </c>
       <c r="Z37" s="3">
@@ -2092,24 +2108,24 @@
       </c>
     </row>
     <row r="38" spans="2:26">
-      <c r="C38" s="57"/>
-      <c r="D38" s="49" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="51" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="28">
         <f>E35+TIME(,30,)</f>
-        <v>0.58749999999999991</v>
-      </c>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="63"/>
+        <v>0.4902777777777777</v>
+      </c>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="65"/>
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="2:26">
-      <c r="C39" s="57"/>
-      <c r="D39" s="50"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="27"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="46" t="s">
+      <c r="X39" s="49"/>
+      <c r="Y39" s="48" t="s">
         <v>1</v>
       </c>
       <c r="Z39" s="3">
@@ -2118,43 +2134,43 @@
       </c>
     </row>
     <row r="40" spans="2:26">
-      <c r="C40" s="57"/>
-      <c r="D40" s="51"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="27"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="47"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="49"/>
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="2:26">
-      <c r="C41" s="57"/>
-      <c r="D41" s="62" t="s">
+      <c r="C41" s="59"/>
+      <c r="D41" s="64" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="28">
         <f>E38+TIME(0,30,0)</f>
-        <v>0.60833333333333328</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="W41" s="2">
         <f>W32+TIME(0,90,0)</f>
         <v>0.58680555555555547</v>
       </c>
-      <c r="X41" s="46" t="s">
+      <c r="X41" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Y41" s="47"/>
+      <c r="Y41" s="49"/>
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="2:26">
-      <c r="C42" s="57"/>
-      <c r="D42" s="63"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="27"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="47"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="49"/>
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="2:26">
-      <c r="C43" s="57"/>
-      <c r="D43" s="56" t="s">
+      <c r="C43" s="59"/>
+      <c r="D43" s="58" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="28"/>
@@ -2163,56 +2179,56 @@
         <v>0.60347222222222219</v>
       </c>
       <c r="X43" s="5"/>
-      <c r="Y43" s="47"/>
+      <c r="Y43" s="49"/>
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="27"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="47"/>
+      <c r="Y44" s="49"/>
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="2:26">
-      <c r="C45" s="58"/>
-      <c r="D45" s="57"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="27"/>
       <c r="X45" s="6"/>
-      <c r="Y45" s="47"/>
+      <c r="Y45" s="49"/>
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="2:26">
       <c r="B46" s="23">
         <f>B35+TIME(0,90,0)</f>
-        <v>0.62777777777777777</v>
-      </c>
-      <c r="C46" s="46" t="s">
+        <v>0.53055555555555545</v>
+      </c>
+      <c r="C46" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="27"/>
-      <c r="Y46" s="47"/>
+      <c r="Y46" s="49"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="2:26">
-      <c r="C47" s="48"/>
-      <c r="D47" s="57"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="27"/>
-      <c r="Y47" s="48"/>
+      <c r="Y47" s="50"/>
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="2:26">
       <c r="B48" s="23">
         <f>B46+TIME(0,20,0)</f>
-        <v>0.64166666666666661</v>
+        <v>0.54444444444444429</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="57"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="27"/>
-      <c r="Y48" s="46" t="s">
+      <c r="Y48" s="48" t="s">
         <v>7</v>
       </c>
       <c r="Z48" s="3">
@@ -2223,24 +2239,24 @@
     <row r="49" spans="2:26">
       <c r="B49" s="23">
         <f>B48+TIME(,10,)</f>
-        <v>0.64861111111111103</v>
+        <v>0.55138888888888871</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="57"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="27"/>
-      <c r="Y49" s="48"/>
+      <c r="Y49" s="50"/>
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="2:26">
       <c r="B50"/>
-      <c r="D50" s="57"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="27"/>
-      <c r="X50" s="38" t="s">
+      <c r="X50" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Y50" s="39"/>
+      <c r="Y50" s="41"/>
       <c r="Z50" s="3">
         <f>Z48+TIME(0,22,0)</f>
         <v>0.65486111111111101</v>
@@ -2248,25 +2264,25 @@
     </row>
     <row r="51" spans="2:26">
       <c r="B51"/>
-      <c r="D51" s="58"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="27"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="41"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="43"/>
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="2:26">
       <c r="B52"/>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="48" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="28">
         <f>E41+TIME(0,90,0)</f>
-        <v>0.67083333333333328</v>
-      </c>
-      <c r="X52" s="38" t="s">
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="X52" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Y52" s="39"/>
+      <c r="Y52" s="41"/>
       <c r="Z52" s="3">
         <f>Z50+TIME(0,25,0)</f>
         <v>0.67222222222222217</v>
@@ -2274,10 +2290,10 @@
     </row>
     <row r="53" spans="2:26">
       <c r="B53"/>
-      <c r="D53" s="48"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="27"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="41"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="43"/>
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="2:26">
@@ -2287,12 +2303,12 @@
       </c>
       <c r="E54" s="28">
         <f>E52+TIME(0,10,0)</f>
-        <v>0.6777777777777777</v>
-      </c>
-      <c r="X54" s="38" t="s">
+        <v>0.58055555555555549</v>
+      </c>
+      <c r="X54" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Y54" s="39"/>
+      <c r="Y54" s="41"/>
       <c r="Z54" s="3">
         <f>Z52+TIME(0,25,0)</f>
         <v>0.68958333333333333</v>
@@ -2305,213 +2321,213 @@
       </c>
       <c r="E55" s="28">
         <f>E54+TIME(0,10,0)</f>
-        <v>0.68472222222222212</v>
-      </c>
-      <c r="X55" s="64"/>
-      <c r="Y55" s="65"/>
+        <v>0.58749999999999991</v>
+      </c>
+      <c r="X55" s="66"/>
+      <c r="Y55" s="67"/>
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="2:26">
       <c r="B56"/>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="39"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="28">
-        <f>E55+TIME(,10,)</f>
-        <v>0.69166666666666654</v>
-      </c>
-      <c r="X56" s="64"/>
-      <c r="Y56" s="65"/>
+        <f>E55+TIME(0,10,0)</f>
+        <v>0.59444444444444433</v>
+      </c>
+      <c r="X56" s="66"/>
+      <c r="Y56" s="67"/>
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="2:26">
       <c r="B57"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="27"/>
-      <c r="X57" s="64"/>
-      <c r="Y57" s="65"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="67"/>
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="2:26">
       <c r="B58"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="28"/>
-      <c r="X58" s="64"/>
-      <c r="Y58" s="65"/>
+      <c r="X58" s="66"/>
+      <c r="Y58" s="67"/>
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="2:26">
       <c r="B59"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="65"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="27"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="65"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="67"/>
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="2:26">
       <c r="B60"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="28"/>
-      <c r="X60" s="64"/>
-      <c r="Y60" s="65"/>
+      <c r="X60" s="66"/>
+      <c r="Y60" s="67"/>
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="2:26">
       <c r="B61"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="65"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="27"/>
-      <c r="X61" s="64"/>
-      <c r="Y61" s="65"/>
+      <c r="X61" s="66"/>
+      <c r="Y61" s="67"/>
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="2:26">
       <c r="B62"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
       <c r="E62" s="27"/>
-      <c r="X62" s="64"/>
-      <c r="Y62" s="65"/>
+      <c r="X62" s="66"/>
+      <c r="Y62" s="67"/>
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="2:26">
       <c r="B63"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="65"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="27"/>
-      <c r="X63" s="64"/>
-      <c r="Y63" s="65"/>
+      <c r="X63" s="66"/>
+      <c r="Y63" s="67"/>
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="2:26">
       <c r="B64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="27"/>
-      <c r="X64" s="64"/>
-      <c r="Y64" s="65"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="67"/>
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="2:26">
       <c r="B65"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="27"/>
-      <c r="X65" s="64"/>
-      <c r="Y65" s="65"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="67"/>
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="2:26">
       <c r="B66"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
       <c r="E66" s="27"/>
-      <c r="X66" s="64"/>
-      <c r="Y66" s="65"/>
+      <c r="X66" s="66"/>
+      <c r="Y66" s="67"/>
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="2:26">
       <c r="B67"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="65"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="27"/>
-      <c r="X67" s="64"/>
-      <c r="Y67" s="65"/>
+      <c r="X67" s="66"/>
+      <c r="Y67" s="67"/>
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="2:26">
       <c r="B68"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="27"/>
-      <c r="X68" s="64"/>
-      <c r="Y68" s="65"/>
+      <c r="X68" s="66"/>
+      <c r="Y68" s="67"/>
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="2:26">
       <c r="B69"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="27"/>
-      <c r="X69" s="64"/>
-      <c r="Y69" s="65"/>
+      <c r="X69" s="66"/>
+      <c r="Y69" s="67"/>
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="2:26">
       <c r="B70"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="27"/>
-      <c r="X70" s="64"/>
-      <c r="Y70" s="65"/>
+      <c r="X70" s="66"/>
+      <c r="Y70" s="67"/>
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="2:26">
       <c r="B71"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="65"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="28"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="65"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="67"/>
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="2:26">
       <c r="B72"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
       <c r="E72" s="27"/>
-      <c r="X72" s="64"/>
-      <c r="Y72" s="65"/>
+      <c r="X72" s="66"/>
+      <c r="Y72" s="67"/>
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="2:26">
       <c r="B73"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="65"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="27"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="65"/>
+      <c r="X73" s="66"/>
+      <c r="Y73" s="67"/>
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="2:26">
       <c r="B74"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="27"/>
-      <c r="X74" s="64"/>
-      <c r="Y74" s="65"/>
+      <c r="X74" s="66"/>
+      <c r="Y74" s="67"/>
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="2:26">
       <c r="B75"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="65"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="67"/>
       <c r="E75" s="27"/>
-      <c r="X75" s="64"/>
-      <c r="Y75" s="65"/>
+      <c r="X75" s="66"/>
+      <c r="Y75" s="67"/>
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="2:26">
       <c r="B76"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
       <c r="E76" s="27"/>
-      <c r="X76" s="64"/>
-      <c r="Y76" s="65"/>
+      <c r="X76" s="66"/>
+      <c r="Y76" s="67"/>
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="2:26">
       <c r="B77"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="65"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="67"/>
       <c r="E77" s="27"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="41"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="43"/>
       <c r="Z77" s="3">
         <f>Z54+TIME(0,252,0)</f>
         <v>0.86458333333333337</v>
@@ -2519,19 +2535,19 @@
     </row>
     <row r="78" spans="2:26">
       <c r="B78"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="27"/>
       <c r="P78" s="12"/>
       <c r="Q78" s="2"/>
     </row>
     <row r="79" spans="2:26">
       <c r="B79"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="28">
-        <f>E56+TIME(,105,0)</f>
-        <v>0.76458333333333317</v>
+        <f>E56+TIME(,189,0)</f>
+        <v>0.72569444444444431</v>
       </c>
       <c r="O79" s="3"/>
       <c r="P79" s="12"/>
@@ -2594,1043 +2610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="10.83203125" style="21"/>
-    <col min="3" max="4" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="45.5" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="13" max="14" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="36">
-      <c r="A1" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="37" thickBot="1">
-      <c r="A2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="33">
-        <v>0.3576388888888889</v>
-      </c>
-      <c r="F2" s="17">
-        <f>E2+TIME(,30,)</f>
-        <v>0.37847222222222221</v>
-      </c>
-      <c r="G2" s="18">
-        <f>E2+TIME(1,30,0)</f>
-        <v>0.4201388888888889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="19" customHeight="1">
-      <c r="B4" s="22"/>
-      <c r="E4" s="34"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="X4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="11"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="X5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="B6" s="22"/>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="W6" s="2">
-        <v>0.34375</v>
-      </c>
-      <c r="X6" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="7">
-        <f>W6</f>
-        <v>0.34375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="B8" s="23">
-        <f>B13-TIME(,50,)</f>
-        <v>0.40347222222222245</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="27"/>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="B9" s="23"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="27"/>
-      <c r="W9" s="2">
-        <f>W6+TIME(0,25,0)</f>
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="X9" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="2">
-        <f>W9</f>
-        <v>0.3611111111111111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="27"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="B11" s="23"/>
-      <c r="C11" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="27"/>
-      <c r="W11" s="2">
-        <f>W9+TIME(0,25,0)</f>
-        <v>0.37847222222222221</v>
-      </c>
-      <c r="X11" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="27"/>
-      <c r="X12" s="47"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="B13" s="23">
-        <f>B16-TIME(,30,)</f>
-        <v>0.43819444444444466</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="X13" s="48"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" ht="14" customHeight="1">
-      <c r="C14" s="50"/>
-      <c r="E14" s="27"/>
-      <c r="W14" s="2">
-        <f>W11+TIME(0,30,0)</f>
-        <v>0.39930555555555552</v>
-      </c>
-      <c r="X14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" ht="13" customHeight="1">
-      <c r="C15" s="51"/>
-      <c r="E15" s="27"/>
-      <c r="X15" s="47"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" ht="14" customHeight="1">
-      <c r="B16" s="23">
-        <f>B18-TIME(,20,)</f>
-        <v>0.45902777777777798</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="W16" s="2">
-        <f>W14+TIME(0,20,0)</f>
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="X16" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="2:26" ht="18" customHeight="1">
-      <c r="C17" s="47"/>
-      <c r="D17" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="28">
-        <f>E19-TIME(,20,)</f>
-        <v>0.46319444444444463</v>
-      </c>
-      <c r="X17" s="47"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="2:26">
-      <c r="B18" s="23">
-        <f>B27-TIME(,90,)</f>
-        <v>0.47291666666666687</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="27"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <f>W16+TIME(0,20,0)</f>
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26">
-      <c r="C19" s="57"/>
-      <c r="D19" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="28">
-        <f>E22-TIME(,30,)</f>
-        <v>0.47708333333333353</v>
-      </c>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="2:26">
-      <c r="C20" s="57"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="27"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="2:26">
-      <c r="C21" s="57"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="27"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z21" s="3">
-        <f>Z18+TIME(0,30,0)</f>
-        <v>0.44791666666666663</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26">
-      <c r="C22" s="57"/>
-      <c r="D22" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="28">
-        <f>E24-TIME(,22,)</f>
-        <v>0.49791666666666684</v>
-      </c>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="2:26">
-      <c r="C23" s="57"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="27"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="3">
-        <f>Z21+TIME(0,22,0)</f>
-        <v>0.46319444444444441</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26">
-      <c r="C24" s="57"/>
-      <c r="D24" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="28">
-        <f>E33-TIME(,90,)</f>
-        <v>0.51319444444444462</v>
-      </c>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="2:26">
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="27"/>
-      <c r="W25" s="2">
-        <f>W16+TIME(0,90,0)</f>
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="X25" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="2:26">
-      <c r="C26" s="58"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="27"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="2:26">
-      <c r="B27" s="23">
-        <f>B29-TIME(,20,)</f>
-        <v>0.53541666666666687</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="27"/>
-      <c r="W27" s="2">
-        <f>W25+TIME(0,20,0)</f>
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="X27" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="2:26">
-      <c r="C28" s="48"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="27"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="2:26">
-      <c r="B29" s="23">
-        <f>B32-TIME(,30,)</f>
-        <v>0.54930555555555571</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="27"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="2:26">
-      <c r="C30" s="60"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="27"/>
-      <c r="W30" s="2">
-        <f>W27+TIME(0,30,0)</f>
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="X30" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="2:26">
-      <c r="C31" s="61"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="27"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="2:26">
-      <c r="B32" s="23">
-        <f>B35-TIME(,30,)</f>
-        <v>0.57013888888888908</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="27"/>
-      <c r="W32" s="2">
-        <f>W30+TIME(0,20,0)</f>
-        <v>0.52430555555555547</v>
-      </c>
-      <c r="X32" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z32" s="3">
-        <f>Z23+TIME(0,90,0)</f>
-        <v>0.52569444444444446</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26">
-      <c r="C33" s="50"/>
-      <c r="D33" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="28">
-        <f>E35-TIME(,22,)</f>
-        <v>0.57569444444444462</v>
-      </c>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="2:26" ht="14" customHeight="1">
-      <c r="C34" s="51"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="27"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="3">
-        <f>Z32+TIME(0,22,0)</f>
-        <v>0.54097222222222219</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26">
-      <c r="B35" s="23">
-        <f>B37-TIME(,20,)</f>
-        <v>0.59097222222222245</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="28">
-        <f>E38-TIME(,30,)</f>
-        <v>0.59097222222222234</v>
-      </c>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="2:26">
-      <c r="C36" s="63"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="27"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="2:26">
-      <c r="B37" s="23">
-        <f>B46-TIME(,90,)</f>
-        <v>0.60486111111111129</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="27"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z37" s="3">
-        <f>Z34+TIME(0,30,0)</f>
-        <v>0.56180555555555556</v>
-      </c>
-    </row>
-    <row r="38" spans="2:26">
-      <c r="C38" s="57"/>
-      <c r="D38" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="28">
-        <f>E41-TIME(,30,)</f>
-        <v>0.61180555555555571</v>
-      </c>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="2:26">
-      <c r="C39" s="57"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="27"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="3">
-        <f>Z37+TIME(0,22,0)</f>
-        <v>0.57708333333333328</v>
-      </c>
-    </row>
-    <row r="40" spans="2:26">
-      <c r="C40" s="57"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="27"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="2:26">
-      <c r="C41" s="57"/>
-      <c r="D41" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="28">
-        <f>E43-TIME(,22,)</f>
-        <v>0.63263888888888908</v>
-      </c>
-      <c r="W41" s="2">
-        <f>W32+TIME(0,90,0)</f>
-        <v>0.58680555555555547</v>
-      </c>
-      <c r="X41" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="2:26">
-      <c r="C42" s="57"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="27"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="2:26">
-      <c r="C43" s="57"/>
-      <c r="D43" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="28">
-        <f>E52-TIME(,90,)</f>
-        <v>0.64791666666666681</v>
-      </c>
-      <c r="W43" s="2">
-        <f>W41+TIME(0,24,0)</f>
-        <v>0.60347222222222219</v>
-      </c>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="2:26">
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="27"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="2:26">
-      <c r="C45" s="58"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="27"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="2:26">
-      <c r="B46" s="23">
-        <f>B48-TIME(,20,)</f>
-        <v>0.66736111111111129</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="27"/>
-      <c r="Y46" s="47"/>
-      <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="2:26">
-      <c r="C47" s="48"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="27"/>
-      <c r="Y47" s="48"/>
-      <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="2:26">
-      <c r="B48" s="23">
-        <f>B49-TIME(,10,)</f>
-        <v>0.68125000000000013</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="27"/>
-      <c r="Y48" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z48" s="3">
-        <f>Z39+TIME(0,90,0)</f>
-        <v>0.63958333333333328</v>
-      </c>
-    </row>
-    <row r="49" spans="2:26">
-      <c r="B49" s="23">
-        <f>E52-TIME(,32,)</f>
-        <v>0.68819444444444455</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="27"/>
-      <c r="Y49" s="48"/>
-      <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="2:26">
-      <c r="B50"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="27"/>
-      <c r="X50" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="3">
-        <f>Z48+TIME(0,22,0)</f>
-        <v>0.65486111111111101</v>
-      </c>
-    </row>
-    <row r="51" spans="2:26">
-      <c r="B51"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="27"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="41"/>
-      <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="2:26">
-      <c r="B52"/>
-      <c r="D52" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="28">
-        <f>E54-TIME(,22,)</f>
-        <v>0.71041666666666681</v>
-      </c>
-      <c r="X52" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="3">
-        <f>Z50+TIME(0,25,0)</f>
-        <v>0.67222222222222217</v>
-      </c>
-    </row>
-    <row r="53" spans="2:26">
-      <c r="B53"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="27"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="41"/>
-      <c r="Z53" s="1"/>
-    </row>
-    <row r="54" spans="2:26">
-      <c r="B54"/>
-      <c r="D54" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="28">
-        <f>E55-TIME(,10,)</f>
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="X54" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="3">
-        <f>Z52+TIME(0,25,0)</f>
-        <v>0.68958333333333333</v>
-      </c>
-    </row>
-    <row r="55" spans="2:26">
-      <c r="B55"/>
-      <c r="D55" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="28">
-        <f>E56-TIME(,10,)</f>
-        <v>0.73263888888888895</v>
-      </c>
-      <c r="X55" s="64"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="2:26">
-      <c r="B56"/>
-      <c r="C56" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="28">
-        <f>E79-TIME(,105,)</f>
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="X56" s="64"/>
-      <c r="Y56" s="65"/>
-      <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="2:26">
-      <c r="B57"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="27"/>
-      <c r="X57" s="64"/>
-      <c r="Y57" s="65"/>
-      <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="2:26">
-      <c r="B58"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="28"/>
-      <c r="X58" s="64"/>
-      <c r="Y58" s="65"/>
-      <c r="Z58" s="1"/>
-    </row>
-    <row r="59" spans="2:26">
-      <c r="B59"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="27"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="65"/>
-      <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="2:26">
-      <c r="B60"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="28"/>
-      <c r="X60" s="64"/>
-      <c r="Y60" s="65"/>
-      <c r="Z60" s="1"/>
-    </row>
-    <row r="61" spans="2:26">
-      <c r="B61"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="27"/>
-      <c r="X61" s="64"/>
-      <c r="Y61" s="65"/>
-      <c r="Z61" s="1"/>
-    </row>
-    <row r="62" spans="2:26">
-      <c r="B62"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="27"/>
-      <c r="X62" s="64"/>
-      <c r="Y62" s="65"/>
-      <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="2:26">
-      <c r="B63"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="27"/>
-      <c r="X63" s="64"/>
-      <c r="Y63" s="65"/>
-      <c r="Z63" s="1"/>
-    </row>
-    <row r="64" spans="2:26">
-      <c r="B64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="27"/>
-      <c r="X64" s="64"/>
-      <c r="Y64" s="65"/>
-      <c r="Z64" s="1"/>
-    </row>
-    <row r="65" spans="2:26">
-      <c r="B65"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="27"/>
-      <c r="X65" s="64"/>
-      <c r="Y65" s="65"/>
-      <c r="Z65" s="3"/>
-    </row>
-    <row r="66" spans="2:26">
-      <c r="B66"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="27"/>
-      <c r="X66" s="64"/>
-      <c r="Y66" s="65"/>
-      <c r="Z66" s="1"/>
-    </row>
-    <row r="67" spans="2:26">
-      <c r="B67"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="27"/>
-      <c r="X67" s="64"/>
-      <c r="Y67" s="65"/>
-      <c r="Z67" s="1"/>
-    </row>
-    <row r="68" spans="2:26">
-      <c r="B68"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="27"/>
-      <c r="X68" s="64"/>
-      <c r="Y68" s="65"/>
-      <c r="Z68" s="1"/>
-    </row>
-    <row r="69" spans="2:26">
-      <c r="B69"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="27"/>
-      <c r="X69" s="64"/>
-      <c r="Y69" s="65"/>
-      <c r="Z69" s="1"/>
-    </row>
-    <row r="70" spans="2:26">
-      <c r="B70"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="27"/>
-      <c r="X70" s="64"/>
-      <c r="Y70" s="65"/>
-      <c r="Z70" s="1"/>
-    </row>
-    <row r="71" spans="2:26">
-      <c r="B71"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="28"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="65"/>
-      <c r="Z71" s="1"/>
-    </row>
-    <row r="72" spans="2:26">
-      <c r="B72"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="27"/>
-      <c r="X72" s="64"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="1"/>
-    </row>
-    <row r="73" spans="2:26">
-      <c r="B73"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="27"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="65"/>
-      <c r="Z73" s="1"/>
-    </row>
-    <row r="74" spans="2:26">
-      <c r="B74"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="27"/>
-      <c r="X74" s="64"/>
-      <c r="Y74" s="65"/>
-      <c r="Z74" s="1"/>
-    </row>
-    <row r="75" spans="2:26">
-      <c r="B75"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="27"/>
-      <c r="X75" s="64"/>
-      <c r="Y75" s="65"/>
-      <c r="Z75" s="1"/>
-    </row>
-    <row r="76" spans="2:26">
-      <c r="B76"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="27"/>
-      <c r="X76" s="64"/>
-      <c r="Y76" s="65"/>
-      <c r="Z76" s="1"/>
-    </row>
-    <row r="77" spans="2:26">
-      <c r="B77"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="27"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="41"/>
-      <c r="Z77" s="3">
-        <f>Z54+TIME(0,252,0)</f>
-        <v>0.86458333333333337</v>
-      </c>
-    </row>
-    <row r="78" spans="2:26">
-      <c r="B78"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="27"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="2:26">
-      <c r="B79"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="28">
-        <v>0.8125</v>
-      </c>
-      <c r="O79" s="3"/>
-      <c r="P79" s="12"/>
-    </row>
-    <row r="81" spans="2:15" ht="15">
-      <c r="B81"/>
-      <c r="E81" s="35"/>
-      <c r="O81"/>
-    </row>
-  </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="X54:Y77"/>
-    <mergeCell ref="C56:D79"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="D43:D51"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="X50:Y51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="X52:Y53"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="Y34:Y36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="Y39:Y47"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="X16:X24"/>
-    <mergeCell ref="C18:C26"/>
-    <mergeCell ref="Y18:Y20"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="Y23:Y31"/>
-    <mergeCell ref="D24:D32"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="X27:X29"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="X32:X40"/>
-    <mergeCell ref="X6:Y7"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="X9:Y10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="X14:X15"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3726,10 +2709,10 @@
       <c r="W6" s="2">
         <v>0.34375</v>
       </c>
-      <c r="X6" s="38" t="s">
+      <c r="X6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="39"/>
+      <c r="Y6" s="41"/>
       <c r="Z6" s="7">
         <f>W6</f>
         <v>0.34375</v>
@@ -3746,19 +2729,19 @@
       <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="41"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="43"/>
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26">
       <c r="B8" s="23">
         <f>B11-TIME(,30,)</f>
-        <v>0.28125</v>
-      </c>
-      <c r="C8" s="42" t="s">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="27"/>
       <c r="H8" t="s">
         <v>32</v>
@@ -3769,91 +2752,91 @@
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="23"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="28"/>
       <c r="W9" s="2">
         <f>W6+TIME(0,25,0)</f>
         <v>0.3611111111111111</v>
       </c>
-      <c r="X9" s="38" t="s">
+      <c r="X9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="39"/>
+      <c r="Y9" s="41"/>
       <c r="Z9" s="2">
         <f>W9</f>
         <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="27"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="41"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26">
       <c r="B11" s="23">
         <f>B13-TIME(,20,)</f>
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="C11" s="42" t="s">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="28"/>
       <c r="W11" s="2">
         <f>W9+TIME(0,25,0)</f>
         <v>0.37847222222222221</v>
       </c>
-      <c r="X11" s="46" t="s">
+      <c r="X11" s="48" t="s">
         <v>0</v>
       </c>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="27"/>
-      <c r="X12" s="47"/>
+      <c r="X12" s="49"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26">
       <c r="B13" s="23">
-        <v>0.31597222222222221</v>
-      </c>
-      <c r="C13" s="49" t="s">
+        <f>B16-TIME(,30,)</f>
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="27"/>
-      <c r="X13" s="48"/>
+      <c r="X13" s="50"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14" customHeight="1">
-      <c r="C14" s="50"/>
+      <c r="C14" s="52"/>
       <c r="E14" s="27"/>
       <c r="W14" s="2">
         <f>W11+TIME(0,30,0)</f>
         <v>0.39930555555555552</v>
       </c>
-      <c r="X14" s="46" t="s">
+      <c r="X14" s="48" t="s">
         <v>10</v>
       </c>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="13" customHeight="1">
-      <c r="C15" s="51"/>
+      <c r="C15" s="53"/>
       <c r="E15" s="27"/>
-      <c r="X15" s="47"/>
+      <c r="X15" s="49"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14" customHeight="1">
       <c r="B16" s="23">
-        <f>B13+TIME(,30,0)</f>
-        <v>0.33680555555555552</v>
-      </c>
-      <c r="C16" s="46" t="s">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="27"/>
@@ -3861,32 +2844,32 @@
         <f>W14+TIME(0,20,0)</f>
         <v>0.41319444444444442</v>
       </c>
-      <c r="X16" s="46" t="s">
+      <c r="X16" s="48" t="s">
         <v>1</v>
       </c>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="2:26" ht="18" customHeight="1">
-      <c r="C17" s="47"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="56" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="28">
         <f>B16+TIME(0,10,0)</f>
-        <v>0.34374999999999994</v>
-      </c>
-      <c r="X17" s="47"/>
+        <v>0.35763888888888884</v>
+      </c>
+      <c r="X17" s="49"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="23"/>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="27"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="46" t="s">
+      <c r="X18" s="49"/>
+      <c r="Y18" s="48" t="s">
         <v>0</v>
       </c>
       <c r="Z18" s="3">
@@ -3895,32 +2878,32 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="C19" s="57"/>
-      <c r="D19" s="49" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="51" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="28">
         <f>E17+TIME(,20,0)</f>
-        <v>0.35763888888888884</v>
-      </c>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="2:26">
-      <c r="C20" s="57"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="27"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="48"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="50"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="2:26">
-      <c r="C21" s="57"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="27"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="46" t="s">
+      <c r="X21" s="49"/>
+      <c r="Y21" s="48" t="s">
         <v>6</v>
       </c>
       <c r="Z21" s="3">
@@ -3929,24 +2912,24 @@
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="C22" s="57"/>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="59"/>
+      <c r="D22" s="48" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="28">
         <f>E19+TIME(0,30,0)</f>
-        <v>0.37847222222222215</v>
-      </c>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
+        <v>0.39236111111111105</v>
+      </c>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="2:26">
-      <c r="C23" s="57"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="27"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="46" t="s">
+      <c r="X23" s="49"/>
+      <c r="Y23" s="48" t="s">
         <v>1</v>
       </c>
       <c r="Z23" s="3">
@@ -3955,119 +2938,119 @@
       </c>
     </row>
     <row r="24" spans="2:26">
-      <c r="C24" s="57"/>
-      <c r="D24" s="56" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="58" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="47"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="49"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="2:26">
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="27"/>
       <c r="W25" s="2">
         <f>W16+TIME(0,90,0)</f>
         <v>0.47569444444444442</v>
       </c>
-      <c r="X25" s="46" t="s">
+      <c r="X25" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Y25" s="47"/>
+      <c r="Y25" s="49"/>
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="2:26">
-      <c r="C26" s="58"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="27"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="47"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="49"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="2:26">
       <c r="B27" s="23">
         <f>B16+TIME(0,90,0)</f>
-        <v>0.39930555555555552</v>
-      </c>
-      <c r="C27" s="46" t="s">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="57"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="27"/>
       <c r="W27" s="2">
         <f>W25+TIME(0,20,0)</f>
         <v>0.48958333333333331</v>
       </c>
-      <c r="X27" s="46" t="s">
+      <c r="X27" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="Y27" s="47"/>
+      <c r="Y27" s="49"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="2:26">
-      <c r="C28" s="48"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="27"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="2:26">
       <c r="B29" s="23">
         <f>B27+TIME(0,20,0)</f>
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="C29" s="59" t="s">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C29" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="57"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="27"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="47"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="49"/>
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="2:26">
-      <c r="C30" s="60"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="27"/>
       <c r="W30" s="2">
         <f>W27+TIME(0,30,0)</f>
         <v>0.51041666666666663</v>
       </c>
-      <c r="X30" s="62" t="s">
+      <c r="X30" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Y30" s="47"/>
+      <c r="Y30" s="49"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="2:26">
-      <c r="C31" s="61"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="27"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="48"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="50"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="2:26">
       <c r="B32" s="23">
         <f>B29+TIME(,30,)</f>
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="C32" s="49" t="s">
+        <v>0.44791666666666663</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="58"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="27"/>
       <c r="W32" s="2">
         <f>W30+TIME(0,20,0)</f>
         <v>0.52430555555555547</v>
       </c>
-      <c r="X32" s="46" t="s">
+      <c r="X32" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="Y32" s="46" t="s">
+      <c r="Y32" s="48" t="s">
         <v>7</v>
       </c>
       <c r="Z32" s="3">
@@ -4076,24 +3059,24 @@
       </c>
     </row>
     <row r="33" spans="2:26">
-      <c r="C33" s="50"/>
-      <c r="D33" s="46" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="48" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="28">
         <f>E22+TIME(0,90,0)</f>
-        <v>0.44097222222222215</v>
-      </c>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="48"/>
+        <v>0.45486111111111105</v>
+      </c>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="50"/>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="2:26" ht="14" customHeight="1">
-      <c r="C34" s="51"/>
-      <c r="D34" s="48"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="27"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="46" t="s">
+      <c r="X34" s="49"/>
+      <c r="Y34" s="48" t="s">
         <v>0</v>
       </c>
       <c r="Z34" s="3">
@@ -4104,39 +3087,39 @@
     <row r="35" spans="2:26">
       <c r="B35" s="23">
         <f>B32+TIME(0,30,0)</f>
-        <v>0.45486111111111105</v>
-      </c>
-      <c r="C35" s="62" t="s">
+        <v>0.46874999999999994</v>
+      </c>
+      <c r="C35" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="61" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="28">
         <f>E33 +TIME(,22,)</f>
-        <v>0.45624999999999993</v>
-      </c>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
+        <v>0.47013888888888883</v>
+      </c>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="2:26">
-      <c r="C36" s="63"/>
-      <c r="D36" s="60"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="27"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="48"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="50"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="2:26">
       <c r="B37" s="23"/>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="61"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="27"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="62" t="s">
+      <c r="X37" s="49"/>
+      <c r="Y37" s="64" t="s">
         <v>8</v>
       </c>
       <c r="Z37" s="3">
@@ -4145,24 +3128,24 @@
       </c>
     </row>
     <row r="38" spans="2:26">
-      <c r="C38" s="57"/>
-      <c r="D38" s="49" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="51" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="28">
         <f>E35+TIME(,30,)</f>
-        <v>0.47708333333333325</v>
-      </c>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="63"/>
+        <v>0.49097222222222214</v>
+      </c>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="65"/>
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="2:26">
-      <c r="C39" s="57"/>
-      <c r="D39" s="50"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="27"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="46" t="s">
+      <c r="X39" s="49"/>
+      <c r="Y39" s="48" t="s">
         <v>1</v>
       </c>
       <c r="Z39" s="3">
@@ -4171,43 +3154,43 @@
       </c>
     </row>
     <row r="40" spans="2:26">
-      <c r="C40" s="57"/>
-      <c r="D40" s="51"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="27"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="47"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="49"/>
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="2:26">
-      <c r="C41" s="57"/>
-      <c r="D41" s="62" t="s">
+      <c r="C41" s="59"/>
+      <c r="D41" s="64" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="28">
         <f>E38+TIME(0,30,0)</f>
-        <v>0.49791666666666656</v>
+        <v>0.51180555555555551</v>
       </c>
       <c r="W41" s="2">
         <f>W32+TIME(0,90,0)</f>
         <v>0.58680555555555547</v>
       </c>
-      <c r="X41" s="46" t="s">
+      <c r="X41" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Y41" s="47"/>
+      <c r="Y41" s="49"/>
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="2:26">
-      <c r="C42" s="57"/>
-      <c r="D42" s="63"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="27"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="47"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="49"/>
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="2:26">
-      <c r="C43" s="57"/>
-      <c r="D43" s="56" t="s">
+      <c r="C43" s="59"/>
+      <c r="D43" s="58" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="28"/>
@@ -4216,56 +3199,56 @@
         <v>0.60347222222222219</v>
       </c>
       <c r="X43" s="5"/>
-      <c r="Y43" s="47"/>
+      <c r="Y43" s="49"/>
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="27"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="47"/>
+      <c r="Y44" s="49"/>
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="2:26">
-      <c r="C45" s="58"/>
-      <c r="D45" s="57"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="27"/>
       <c r="X45" s="6"/>
-      <c r="Y45" s="47"/>
+      <c r="Y45" s="49"/>
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="2:26">
       <c r="B46" s="23">
         <f>B35+TIME(0,90,0)</f>
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="C46" s="46" t="s">
+        <v>0.53125</v>
+      </c>
+      <c r="C46" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="27"/>
-      <c r="Y46" s="47"/>
+      <c r="Y46" s="49"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="2:26">
-      <c r="C47" s="48"/>
-      <c r="D47" s="57"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="27"/>
-      <c r="Y47" s="48"/>
+      <c r="Y47" s="50"/>
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="2:26">
       <c r="B48" s="23">
         <f>B46+TIME(0,20,0)</f>
-        <v>0.53124999999999989</v>
+        <v>0.54513888888888884</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="57"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="27"/>
-      <c r="Y48" s="46" t="s">
+      <c r="Y48" s="48" t="s">
         <v>7</v>
       </c>
       <c r="Z48" s="3">
@@ -4276,24 +3259,24 @@
     <row r="49" spans="2:26">
       <c r="B49" s="23">
         <f>B48+TIME(,10,)</f>
-        <v>0.53819444444444431</v>
+        <v>0.55208333333333326</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="57"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="27"/>
-      <c r="Y49" s="48"/>
+      <c r="Y49" s="50"/>
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="2:26">
       <c r="B50"/>
-      <c r="D50" s="57"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="27"/>
-      <c r="X50" s="38" t="s">
+      <c r="X50" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Y50" s="39"/>
+      <c r="Y50" s="41"/>
       <c r="Z50" s="3">
         <f>Z48+TIME(0,22,0)</f>
         <v>0.65486111111111101</v>
@@ -4301,25 +3284,25 @@
     </row>
     <row r="51" spans="2:26">
       <c r="B51"/>
-      <c r="D51" s="58"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="27"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="41"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="43"/>
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="2:26">
       <c r="B52"/>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="48" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="28">
         <f>E41+TIME(0,90,0)</f>
-        <v>0.56041666666666656</v>
-      </c>
-      <c r="X52" s="38" t="s">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="X52" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Y52" s="39"/>
+      <c r="Y52" s="41"/>
       <c r="Z52" s="3">
         <f>Z50+TIME(0,25,0)</f>
         <v>0.67222222222222217</v>
@@ -4327,10 +3310,10 @@
     </row>
     <row r="53" spans="2:26">
       <c r="B53"/>
-      <c r="D53" s="48"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="27"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="41"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="43"/>
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="2:26">
@@ -4340,12 +3323,12 @@
       </c>
       <c r="E54" s="28">
         <f>E52+TIME(0,10,0)</f>
-        <v>0.56736111111111098</v>
-      </c>
-      <c r="X54" s="38" t="s">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="X54" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Y54" s="39"/>
+      <c r="Y54" s="41"/>
       <c r="Z54" s="3">
         <f>Z52+TIME(0,25,0)</f>
         <v>0.68958333333333333</v>
@@ -4358,213 +3341,213 @@
       </c>
       <c r="E55" s="28">
         <f>E54+TIME(0,10,0)</f>
-        <v>0.5743055555555554</v>
-      </c>
-      <c r="X55" s="64"/>
-      <c r="Y55" s="65"/>
+        <v>0.58819444444444435</v>
+      </c>
+      <c r="X55" s="66"/>
+      <c r="Y55" s="67"/>
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="2:26">
       <c r="B56"/>
-      <c r="C56" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="39"/>
+      <c r="C56" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="41"/>
       <c r="E56" s="28">
         <f>E55+TIME(0,10,0)</f>
-        <v>0.58124999999999982</v>
-      </c>
-      <c r="X56" s="64"/>
-      <c r="Y56" s="65"/>
+        <v>0.59513888888888877</v>
+      </c>
+      <c r="X56" s="66"/>
+      <c r="Y56" s="67"/>
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="2:26">
       <c r="B57"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="27"/>
-      <c r="X57" s="64"/>
-      <c r="Y57" s="65"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="67"/>
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="2:26">
       <c r="B58"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="28"/>
-      <c r="X58" s="64"/>
-      <c r="Y58" s="65"/>
+      <c r="X58" s="66"/>
+      <c r="Y58" s="67"/>
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="2:26">
       <c r="B59"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="65"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="27"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="65"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="67"/>
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="2:26">
       <c r="B60"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="28"/>
-      <c r="X60" s="64"/>
-      <c r="Y60" s="65"/>
+      <c r="X60" s="66"/>
+      <c r="Y60" s="67"/>
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="2:26">
       <c r="B61"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="65"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="27"/>
-      <c r="X61" s="64"/>
-      <c r="Y61" s="65"/>
+      <c r="X61" s="66"/>
+      <c r="Y61" s="67"/>
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="2:26">
       <c r="B62"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
       <c r="E62" s="27"/>
-      <c r="X62" s="64"/>
-      <c r="Y62" s="65"/>
+      <c r="X62" s="66"/>
+      <c r="Y62" s="67"/>
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="2:26">
       <c r="B63"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="65"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="27"/>
-      <c r="X63" s="64"/>
-      <c r="Y63" s="65"/>
+      <c r="X63" s="66"/>
+      <c r="Y63" s="67"/>
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="2:26">
       <c r="B64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="27"/>
-      <c r="X64" s="64"/>
-      <c r="Y64" s="65"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="67"/>
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="2:26">
       <c r="B65"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="27"/>
-      <c r="X65" s="64"/>
-      <c r="Y65" s="65"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="67"/>
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="2:26">
       <c r="B66"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
       <c r="E66" s="27"/>
-      <c r="X66" s="64"/>
-      <c r="Y66" s="65"/>
+      <c r="X66" s="66"/>
+      <c r="Y66" s="67"/>
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="2:26">
       <c r="B67"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="65"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="27"/>
-      <c r="X67" s="64"/>
-      <c r="Y67" s="65"/>
+      <c r="X67" s="66"/>
+      <c r="Y67" s="67"/>
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="2:26">
       <c r="B68"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="27"/>
-      <c r="X68" s="64"/>
-      <c r="Y68" s="65"/>
+      <c r="X68" s="66"/>
+      <c r="Y68" s="67"/>
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="2:26">
       <c r="B69"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="27"/>
-      <c r="X69" s="64"/>
-      <c r="Y69" s="65"/>
+      <c r="X69" s="66"/>
+      <c r="Y69" s="67"/>
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="2:26">
       <c r="B70"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="27"/>
-      <c r="X70" s="64"/>
-      <c r="Y70" s="65"/>
+      <c r="X70" s="66"/>
+      <c r="Y70" s="67"/>
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="2:26">
       <c r="B71"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="65"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="28"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="65"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="67"/>
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="2:26">
       <c r="B72"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
       <c r="E72" s="27"/>
-      <c r="X72" s="64"/>
-      <c r="Y72" s="65"/>
+      <c r="X72" s="66"/>
+      <c r="Y72" s="67"/>
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="2:26">
       <c r="B73"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="65"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="27"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="65"/>
+      <c r="X73" s="66"/>
+      <c r="Y73" s="67"/>
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="2:26">
       <c r="B74"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="27"/>
-      <c r="X74" s="64"/>
-      <c r="Y74" s="65"/>
+      <c r="X74" s="66"/>
+      <c r="Y74" s="67"/>
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="2:26">
       <c r="B75"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="65"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="67"/>
       <c r="E75" s="27"/>
-      <c r="X75" s="64"/>
-      <c r="Y75" s="65"/>
+      <c r="X75" s="66"/>
+      <c r="Y75" s="67"/>
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="2:26">
       <c r="B76"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
       <c r="E76" s="27"/>
-      <c r="X76" s="64"/>
-      <c r="Y76" s="65"/>
+      <c r="X76" s="66"/>
+      <c r="Y76" s="67"/>
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="2:26">
       <c r="B77"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="65"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="67"/>
       <c r="E77" s="27"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="41"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="43"/>
       <c r="Z77" s="3">
         <f>Z54+TIME(0,252,0)</f>
         <v>0.86458333333333337</v>
@@ -4572,19 +3555,19 @@
     </row>
     <row r="78" spans="2:26">
       <c r="B78"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="27"/>
       <c r="P78" s="12"/>
       <c r="Q78" s="2"/>
     </row>
     <row r="79" spans="2:26">
       <c r="B79"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="28">
-        <f>E56+TIME(,105,0)</f>
-        <v>0.65416666666666645</v>
+        <f>E56+TIME(,190,0)</f>
+        <v>0.72708333333333319</v>
       </c>
       <c r="O79" s="3"/>
       <c r="P79" s="12"/>
@@ -4645,12 +3628,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4746,10 +3729,10 @@
       <c r="W6" s="2">
         <v>0.34375</v>
       </c>
-      <c r="X6" s="38" t="s">
+      <c r="X6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="39"/>
+      <c r="Y6" s="41"/>
       <c r="Z6" s="7">
         <f>W6</f>
         <v>0.34375</v>
@@ -4766,112 +3749,112 @@
       <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="41"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="43"/>
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26">
       <c r="B8" s="23">
         <f>B13-TIME(,50,)</f>
-        <v>0.50763888888888908</v>
-      </c>
-      <c r="C8" s="42" t="s">
+        <v>0.32013888888888914</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="27"/>
       <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="20"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="37"/>
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="23"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="27"/>
       <c r="W9" s="2">
         <f>W6+TIME(0,25,0)</f>
         <v>0.3611111111111111</v>
       </c>
-      <c r="X9" s="38" t="s">
+      <c r="X9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="39"/>
+      <c r="Y9" s="41"/>
       <c r="Z9" s="2">
         <f>W9</f>
         <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="27"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="41"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26">
       <c r="B11" s="23"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="27"/>
       <c r="W11" s="2">
         <f>W9+TIME(0,25,0)</f>
         <v>0.37847222222222221</v>
       </c>
-      <c r="X11" s="46" t="s">
+      <c r="X11" s="48" t="s">
         <v>0</v>
       </c>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="27"/>
-      <c r="X12" s="47"/>
+      <c r="X12" s="49"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26">
       <c r="B13" s="23">
         <f>B16-TIME(,30,)</f>
-        <v>0.54236111111111129</v>
-      </c>
-      <c r="C13" s="49" t="s">
+        <v>0.35486111111111135</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="27"/>
-      <c r="X13" s="48"/>
+      <c r="X13" s="50"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14" customHeight="1">
-      <c r="C14" s="50"/>
+      <c r="C14" s="52"/>
       <c r="E14" s="27"/>
       <c r="W14" s="2">
         <f>W11+TIME(0,30,0)</f>
         <v>0.39930555555555552</v>
       </c>
-      <c r="X14" s="46" t="s">
+      <c r="X14" s="48" t="s">
         <v>10</v>
       </c>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="13" customHeight="1">
-      <c r="C15" s="51"/>
+      <c r="C15" s="53"/>
       <c r="E15" s="27"/>
-      <c r="X15" s="47"/>
+      <c r="X15" s="49"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14" customHeight="1">
       <c r="B16" s="23">
         <f>B18-TIME(,20,)</f>
-        <v>0.56319444444444466</v>
-      </c>
-      <c r="C16" s="46" t="s">
+        <v>0.37569444444444466</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="27"/>
@@ -4879,35 +3862,35 @@
         <f>W14+TIME(0,20,0)</f>
         <v>0.41319444444444442</v>
       </c>
-      <c r="X16" s="46" t="s">
+      <c r="X16" s="48" t="s">
         <v>1</v>
       </c>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="2:26" ht="18" customHeight="1">
-      <c r="C17" s="47"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="56" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="28">
         <f>E19-TIME(,20,)</f>
-        <v>0.56736111111111132</v>
-      </c>
-      <c r="X17" s="47"/>
+        <v>0.3798611111111112</v>
+      </c>
+      <c r="X17" s="49"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="23">
         <f>B27-TIME(,90,)</f>
-        <v>0.5770833333333335</v>
-      </c>
-      <c r="C18" s="56" t="s">
+        <v>0.38958333333333356</v>
+      </c>
+      <c r="C18" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="27"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="46" t="s">
+      <c r="X18" s="49"/>
+      <c r="Y18" s="48" t="s">
         <v>0</v>
       </c>
       <c r="Z18" s="3">
@@ -4916,32 +3899,32 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="C19" s="57"/>
-      <c r="D19" s="49" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="51" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="28">
         <f>E22-TIME(,30,)</f>
-        <v>0.58125000000000016</v>
-      </c>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
+        <v>0.3937500000000001</v>
+      </c>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="2:26">
-      <c r="C20" s="57"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="27"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="48"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="50"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="2:26">
-      <c r="C21" s="57"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="27"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="46" t="s">
+      <c r="X21" s="49"/>
+      <c r="Y21" s="48" t="s">
         <v>6</v>
       </c>
       <c r="Z21" s="3">
@@ -4950,24 +3933,24 @@
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="C22" s="57"/>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="59"/>
+      <c r="D22" s="48" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="28">
         <f>E24-TIME(,22,)</f>
-        <v>0.60208333333333353</v>
-      </c>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
+        <v>0.41458333333333341</v>
+      </c>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="2:26">
-      <c r="C23" s="57"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="27"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="46" t="s">
+      <c r="X23" s="49"/>
+      <c r="Y23" s="48" t="s">
         <v>1</v>
       </c>
       <c r="Z23" s="3">
@@ -4976,122 +3959,122 @@
       </c>
     </row>
     <row r="24" spans="2:26">
-      <c r="C24" s="57"/>
-      <c r="D24" s="56" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="58" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="28">
         <f>E33-TIME(,90,)</f>
-        <v>0.61736111111111125</v>
-      </c>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="47"/>
+        <v>0.42986111111111119</v>
+      </c>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="49"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="2:26">
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="27"/>
       <c r="W25" s="2">
         <f>W16+TIME(0,90,0)</f>
         <v>0.47569444444444442</v>
       </c>
-      <c r="X25" s="46" t="s">
+      <c r="X25" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Y25" s="47"/>
+      <c r="Y25" s="49"/>
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="2:26">
-      <c r="C26" s="58"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="27"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="47"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="49"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="2:26">
       <c r="B27" s="23">
         <f>B29-TIME(,20,)</f>
-        <v>0.6395833333333335</v>
-      </c>
-      <c r="C27" s="46" t="s">
+        <v>0.45208333333333356</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="57"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="27"/>
       <c r="W27" s="2">
         <f>W25+TIME(0,20,0)</f>
         <v>0.48958333333333331</v>
       </c>
-      <c r="X27" s="46" t="s">
+      <c r="X27" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="Y27" s="47"/>
+      <c r="Y27" s="49"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="2:26">
-      <c r="C28" s="48"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="27"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="2:26">
       <c r="B29" s="23">
         <f>B32-TIME(,30,)</f>
-        <v>0.65347222222222234</v>
-      </c>
-      <c r="C29" s="59" t="s">
+        <v>0.46597222222222245</v>
+      </c>
+      <c r="C29" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="57"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="27"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="47"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="49"/>
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="2:26">
-      <c r="C30" s="60"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="27"/>
       <c r="W30" s="2">
         <f>W27+TIME(0,30,0)</f>
         <v>0.51041666666666663</v>
       </c>
-      <c r="X30" s="62" t="s">
+      <c r="X30" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Y30" s="47"/>
+      <c r="Y30" s="49"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="2:26">
-      <c r="C31" s="61"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="27"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="48"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="50"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="2:26">
       <c r="B32" s="23">
         <f>B35-TIME(,30,)</f>
-        <v>0.67430555555555571</v>
-      </c>
-      <c r="C32" s="49" t="s">
+        <v>0.48680555555555577</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="58"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="27"/>
       <c r="W32" s="2">
         <f>W30+TIME(0,20,0)</f>
         <v>0.52430555555555547</v>
       </c>
-      <c r="X32" s="46" t="s">
+      <c r="X32" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="Y32" s="46" t="s">
+      <c r="Y32" s="48" t="s">
         <v>7</v>
       </c>
       <c r="Z32" s="3">
@@ -5100,24 +4083,24 @@
       </c>
     </row>
     <row r="33" spans="2:26">
-      <c r="C33" s="50"/>
-      <c r="D33" s="46" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="48" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="28">
         <f>E35-TIME(,22,)</f>
-        <v>0.67986111111111125</v>
-      </c>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="48"/>
+        <v>0.49236111111111119</v>
+      </c>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="50"/>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="2:26" ht="14" customHeight="1">
-      <c r="C34" s="51"/>
-      <c r="D34" s="48"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="27"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="46" t="s">
+      <c r="X34" s="49"/>
+      <c r="Y34" s="48" t="s">
         <v>0</v>
       </c>
       <c r="Z34" s="3">
@@ -5128,42 +4111,42 @@
     <row r="35" spans="2:26">
       <c r="B35" s="23">
         <f>B37-TIME(,20,)</f>
-        <v>0.69513888888888908</v>
-      </c>
-      <c r="C35" s="62" t="s">
+        <v>0.50763888888888908</v>
+      </c>
+      <c r="C35" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="61" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="28">
         <f>E38-TIME(,30,)</f>
-        <v>0.69513888888888897</v>
-      </c>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
+        <v>0.50763888888888897</v>
+      </c>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="2:26">
-      <c r="C36" s="63"/>
-      <c r="D36" s="60"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="27"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="48"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="50"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="2:26">
       <c r="B37" s="23">
         <f>B46-TIME(,90,)</f>
-        <v>0.70902777777777792</v>
-      </c>
-      <c r="C37" s="56" t="s">
+        <v>0.52152777777777792</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="61"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="27"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="62" t="s">
+      <c r="X37" s="49"/>
+      <c r="Y37" s="64" t="s">
         <v>8</v>
       </c>
       <c r="Z37" s="3">
@@ -5172,24 +4155,24 @@
       </c>
     </row>
     <row r="38" spans="2:26">
-      <c r="C38" s="57"/>
-      <c r="D38" s="49" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="51" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="28">
         <f>E41-TIME(,30,)</f>
-        <v>0.71597222222222234</v>
-      </c>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="63"/>
+        <v>0.52847222222222234</v>
+      </c>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="65"/>
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="2:26">
-      <c r="C39" s="57"/>
-      <c r="D39" s="50"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="27"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="46" t="s">
+      <c r="X39" s="49"/>
+      <c r="Y39" s="48" t="s">
         <v>1</v>
       </c>
       <c r="Z39" s="3">
@@ -5198,104 +4181,104 @@
       </c>
     </row>
     <row r="40" spans="2:26">
-      <c r="C40" s="57"/>
-      <c r="D40" s="51"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="27"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="47"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="49"/>
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="2:26">
-      <c r="C41" s="57"/>
-      <c r="D41" s="62" t="s">
+      <c r="C41" s="59"/>
+      <c r="D41" s="64" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="28">
         <f>E43-TIME(,22,)</f>
-        <v>0.73680555555555571</v>
+        <v>0.54930555555555571</v>
       </c>
       <c r="W41" s="2">
         <f>W32+TIME(0,90,0)</f>
         <v>0.58680555555555547</v>
       </c>
-      <c r="X41" s="46" t="s">
+      <c r="X41" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Y41" s="47"/>
+      <c r="Y41" s="49"/>
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="2:26">
-      <c r="C42" s="57"/>
-      <c r="D42" s="63"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="27"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="47"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="49"/>
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="2:26">
-      <c r="C43" s="57"/>
-      <c r="D43" s="56" t="s">
+      <c r="C43" s="59"/>
+      <c r="D43" s="58" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="28">
         <f>E52-TIME(,90,)</f>
-        <v>0.75208333333333344</v>
+        <v>0.56458333333333344</v>
       </c>
       <c r="W43" s="2">
         <f>W41+TIME(0,24,0)</f>
         <v>0.60347222222222219</v>
       </c>
       <c r="X43" s="5"/>
-      <c r="Y43" s="47"/>
+      <c r="Y43" s="49"/>
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="27"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="47"/>
+      <c r="Y44" s="49"/>
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="2:26">
-      <c r="C45" s="58"/>
-      <c r="D45" s="57"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="27"/>
       <c r="X45" s="6"/>
-      <c r="Y45" s="47"/>
+      <c r="Y45" s="49"/>
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="2:26">
       <c r="B46" s="23">
         <f>B48-TIME(,20,)</f>
-        <v>0.77152777777777792</v>
-      </c>
-      <c r="C46" s="46" t="s">
+        <v>0.58402777777777792</v>
+      </c>
+      <c r="C46" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="27"/>
-      <c r="Y46" s="47"/>
+      <c r="Y46" s="49"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="2:26">
-      <c r="C47" s="48"/>
-      <c r="D47" s="57"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="27"/>
-      <c r="Y47" s="48"/>
+      <c r="Y47" s="50"/>
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="2:26">
       <c r="B48" s="23">
         <f>B49-TIME(,10,)</f>
-        <v>0.78541666666666676</v>
+        <v>0.59791666666666676</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="57"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="27"/>
-      <c r="Y48" s="46" t="s">
+      <c r="Y48" s="48" t="s">
         <v>7</v>
       </c>
       <c r="Z48" s="3">
@@ -5306,24 +4289,24 @@
     <row r="49" spans="2:26">
       <c r="B49" s="23">
         <f>E52-TIME(,32,)</f>
-        <v>0.79236111111111118</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="57"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="27"/>
-      <c r="Y49" s="48"/>
+      <c r="Y49" s="50"/>
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="2:26">
       <c r="B50"/>
-      <c r="D50" s="57"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="27"/>
-      <c r="X50" s="38" t="s">
+      <c r="X50" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Y50" s="39"/>
+      <c r="Y50" s="41"/>
       <c r="Z50" s="3">
         <f>Z48+TIME(0,22,0)</f>
         <v>0.65486111111111101</v>
@@ -5331,25 +4314,25 @@
     </row>
     <row r="51" spans="2:26">
       <c r="B51"/>
-      <c r="D51" s="58"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="27"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="41"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="43"/>
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="2:26">
       <c r="B52"/>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="48" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="28">
         <f>E54-TIME(,22,)</f>
-        <v>0.81458333333333344</v>
-      </c>
-      <c r="X52" s="38" t="s">
+        <v>0.62708333333333344</v>
+      </c>
+      <c r="X52" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Y52" s="39"/>
+      <c r="Y52" s="41"/>
       <c r="Z52" s="3">
         <f>Z50+TIME(0,25,0)</f>
         <v>0.67222222222222217</v>
@@ -5357,10 +4340,10 @@
     </row>
     <row r="53" spans="2:26">
       <c r="B53"/>
-      <c r="D53" s="48"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="27"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="41"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="43"/>
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="2:26">
@@ -5370,12 +4353,12 @@
       </c>
       <c r="E54" s="28">
         <f>E55-TIME(,10,)</f>
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="X54" s="38" t="s">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="X54" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Y54" s="39"/>
+      <c r="Y54" s="41"/>
       <c r="Z54" s="3">
         <f>Z52+TIME(0,25,0)</f>
         <v>0.68958333333333333</v>
@@ -5388,213 +4371,213 @@
       </c>
       <c r="E55" s="28">
         <f>E56-TIME(,10,)</f>
-        <v>0.83680555555555558</v>
-      </c>
-      <c r="X55" s="64"/>
-      <c r="Y55" s="65"/>
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="X55" s="66"/>
+      <c r="Y55" s="67"/>
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="2:26">
       <c r="B56"/>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="39"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="28">
         <f>E79-TIME(,105,)</f>
-        <v>0.84375</v>
-      </c>
-      <c r="X56" s="64"/>
-      <c r="Y56" s="65"/>
+        <v>0.65625</v>
+      </c>
+      <c r="X56" s="66"/>
+      <c r="Y56" s="67"/>
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="2:26">
       <c r="B57"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="27"/>
-      <c r="X57" s="64"/>
-      <c r="Y57" s="65"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="67"/>
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="2:26">
       <c r="B58"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="28"/>
-      <c r="X58" s="64"/>
-      <c r="Y58" s="65"/>
+      <c r="X58" s="66"/>
+      <c r="Y58" s="67"/>
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="2:26">
       <c r="B59"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="65"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="27"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="65"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="67"/>
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="2:26">
       <c r="B60"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="28"/>
-      <c r="X60" s="64"/>
-      <c r="Y60" s="65"/>
+      <c r="X60" s="66"/>
+      <c r="Y60" s="67"/>
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="2:26">
       <c r="B61"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="65"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="27"/>
-      <c r="X61" s="64"/>
-      <c r="Y61" s="65"/>
+      <c r="X61" s="66"/>
+      <c r="Y61" s="67"/>
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="2:26">
       <c r="B62"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
       <c r="E62" s="27"/>
-      <c r="X62" s="64"/>
-      <c r="Y62" s="65"/>
+      <c r="X62" s="66"/>
+      <c r="Y62" s="67"/>
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="2:26">
       <c r="B63"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="65"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="27"/>
-      <c r="X63" s="64"/>
-      <c r="Y63" s="65"/>
+      <c r="X63" s="66"/>
+      <c r="Y63" s="67"/>
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="2:26">
       <c r="B64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="27"/>
-      <c r="X64" s="64"/>
-      <c r="Y64" s="65"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="67"/>
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="2:26">
       <c r="B65"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="27"/>
-      <c r="X65" s="64"/>
-      <c r="Y65" s="65"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="67"/>
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="2:26">
       <c r="B66"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
       <c r="E66" s="27"/>
-      <c r="X66" s="64"/>
-      <c r="Y66" s="65"/>
+      <c r="X66" s="66"/>
+      <c r="Y66" s="67"/>
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="2:26">
       <c r="B67"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="65"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="27"/>
-      <c r="X67" s="64"/>
-      <c r="Y67" s="65"/>
+      <c r="X67" s="66"/>
+      <c r="Y67" s="67"/>
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="2:26">
       <c r="B68"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="27"/>
-      <c r="X68" s="64"/>
-      <c r="Y68" s="65"/>
+      <c r="X68" s="66"/>
+      <c r="Y68" s="67"/>
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="2:26">
       <c r="B69"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="27"/>
-      <c r="X69" s="64"/>
-      <c r="Y69" s="65"/>
+      <c r="X69" s="66"/>
+      <c r="Y69" s="67"/>
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="2:26">
       <c r="B70"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="27"/>
-      <c r="X70" s="64"/>
-      <c r="Y70" s="65"/>
+      <c r="X70" s="66"/>
+      <c r="Y70" s="67"/>
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="2:26">
       <c r="B71"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="65"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="28"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="65"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="67"/>
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="2:26">
       <c r="B72"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
       <c r="E72" s="27"/>
-      <c r="X72" s="64"/>
-      <c r="Y72" s="65"/>
+      <c r="X72" s="66"/>
+      <c r="Y72" s="67"/>
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="2:26">
       <c r="B73"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="65"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="27"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="65"/>
+      <c r="X73" s="66"/>
+      <c r="Y73" s="67"/>
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="2:26">
       <c r="B74"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="27"/>
-      <c r="X74" s="64"/>
-      <c r="Y74" s="65"/>
+      <c r="X74" s="66"/>
+      <c r="Y74" s="67"/>
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="2:26">
       <c r="B75"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="65"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="67"/>
       <c r="E75" s="27"/>
-      <c r="X75" s="64"/>
-      <c r="Y75" s="65"/>
+      <c r="X75" s="66"/>
+      <c r="Y75" s="67"/>
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="2:26">
       <c r="B76"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
       <c r="E76" s="27"/>
-      <c r="X76" s="64"/>
-      <c r="Y76" s="65"/>
+      <c r="X76" s="66"/>
+      <c r="Y76" s="67"/>
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="2:26">
       <c r="B77"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="65"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="67"/>
       <c r="E77" s="27"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="41"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="43"/>
       <c r="Z77" s="3">
         <f>Z54+TIME(0,252,0)</f>
         <v>0.86458333333333337</v>
@@ -5602,23 +4585,1056 @@
     </row>
     <row r="78" spans="2:26">
       <c r="B78"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="27"/>
       <c r="P78" s="12"/>
       <c r="Q78" s="2"/>
     </row>
     <row r="79" spans="2:26">
       <c r="B79"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="28">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="O79" s="3"/>
+      <c r="P79" s="12"/>
+    </row>
+    <row r="81" spans="2:15" ht="15">
+      <c r="B81"/>
+      <c r="E81" s="35"/>
+      <c r="O81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="X54:Y77"/>
+    <mergeCell ref="C56:D79"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="D43:D51"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="X50:Y51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="X52:Y53"/>
+    <mergeCell ref="X16:X24"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="Y18:Y20"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="Y23:Y31"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="X27:X29"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="X32:X40"/>
+    <mergeCell ref="X6:Y7"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="X9:Y10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="Y39:Y47"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C16:C17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="21"/>
+    <col min="3" max="4" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="45.5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="13" max="14" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="36">
+      <c r="A1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="37" thickBot="1">
+      <c r="A2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F2" s="17">
+        <f>E2+TIME(,30,)</f>
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2+TIME(1,30,0)</f>
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="19" customHeight="1">
+      <c r="B4" s="22"/>
+      <c r="E4" s="34"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="X4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="X5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="B6" s="22"/>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="W6" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="X6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="7">
+        <f>W6</f>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="23">
+        <f>B13-TIME(,50,)</f>
+        <v>0.44861111111111135</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="27"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="23"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="27"/>
+      <c r="W9" s="2">
+        <f>W6+TIME(0,25,0)</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="X9" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="2">
+        <f>W9</f>
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="27"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="B11" s="23"/>
+      <c r="C11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="27"/>
+      <c r="W11" s="2">
+        <f>W9+TIME(0,25,0)</f>
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="X11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="27"/>
+      <c r="X12" s="49"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="23">
+        <f>B16-TIME(,30,)</f>
+        <v>0.48333333333333356</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="X13" s="50"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" ht="14" customHeight="1">
+      <c r="C14" s="52"/>
+      <c r="E14" s="27"/>
+      <c r="W14" s="2">
+        <f>W11+TIME(0,30,0)</f>
+        <v>0.39930555555555552</v>
+      </c>
+      <c r="X14" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" ht="13" customHeight="1">
+      <c r="C15" s="53"/>
+      <c r="E15" s="27"/>
+      <c r="X15" s="49"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" ht="14" customHeight="1">
+      <c r="B16" s="23">
+        <f>B18-TIME(,20,)</f>
+        <v>0.50416666666666687</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="W16" s="2">
+        <f>W14+TIME(0,20,0)</f>
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="X16" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="2:26" ht="18" customHeight="1">
+      <c r="C17" s="49"/>
+      <c r="D17" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="28">
+        <f>E19-TIME(,20,)</f>
+        <v>0.50833333333333353</v>
+      </c>
+      <c r="X17" s="49"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="2:26">
+      <c r="B18" s="23">
+        <f>B27-TIME(,90,)</f>
+        <v>0.51805555555555571</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="27"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <f>W16+TIME(0,20,0)</f>
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26">
+      <c r="C19" s="59"/>
+      <c r="D19" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="28">
+        <f>E22-TIME(,30,)</f>
+        <v>0.52222222222222237</v>
+      </c>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="2:26">
+      <c r="C20" s="59"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="27"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="2:26">
+      <c r="C21" s="59"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="27"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="3">
+        <f>Z18+TIME(0,30,0)</f>
+        <v>0.44791666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26">
+      <c r="C22" s="59"/>
+      <c r="D22" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="28">
+        <f>E24-TIME(,22,)</f>
+        <v>0.54305555555555574</v>
+      </c>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="2:26">
+      <c r="C23" s="59"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="27"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3">
+        <f>Z21+TIME(0,22,0)</f>
+        <v>0.46319444444444441</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26">
+      <c r="C24" s="59"/>
+      <c r="D24" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="28">
+        <f>E33-TIME(,90,)</f>
+        <v>0.55833333333333346</v>
+      </c>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="2:26">
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="27"/>
+      <c r="W25" s="2">
+        <f>W16+TIME(0,90,0)</f>
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="X25" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="2:26">
+      <c r="C26" s="60"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="27"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="2:26">
+      <c r="B27" s="23">
+        <f>B29-TIME(,20,)</f>
+        <v>0.58055555555555571</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="27"/>
+      <c r="W27" s="2">
+        <f>W25+TIME(0,20,0)</f>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="X27" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="2:26">
+      <c r="C28" s="50"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="27"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="2:26">
+      <c r="B29" s="23">
+        <f>B32-TIME(,30,)</f>
+        <v>0.59444444444444455</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="27"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="2:26">
+      <c r="C30" s="62"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="27"/>
+      <c r="W30" s="2">
+        <f>W27+TIME(0,30,0)</f>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="X30" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="2:26">
+      <c r="C31" s="63"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="27"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="B32" s="23">
+        <f>B35-TIME(,30,)</f>
+        <v>0.61527777777777792</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="60"/>
+      <c r="E32" s="27"/>
+      <c r="W32" s="2">
+        <f>W30+TIME(0,20,0)</f>
+        <v>0.52430555555555547</v>
+      </c>
+      <c r="X32" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z32" s="3">
+        <f>Z23+TIME(0,90,0)</f>
+        <v>0.52569444444444446</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26">
+      <c r="C33" s="52"/>
+      <c r="D33" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="28">
+        <f>E35-TIME(,22,)</f>
+        <v>0.62083333333333346</v>
+      </c>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="2:26" ht="14" customHeight="1">
+      <c r="C34" s="53"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="27"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <f>Z32+TIME(0,22,0)</f>
+        <v>0.54097222222222219</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="B35" s="23">
+        <f>B37-TIME(,20,)</f>
+        <v>0.63611111111111129</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="28">
+        <f>E38-TIME(,30,)</f>
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="2:26">
+      <c r="C36" s="65"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="27"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="2:26">
+      <c r="B37" s="23">
+        <f>B46-TIME(,90,)</f>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="63"/>
+      <c r="E37" s="27"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z37" s="3">
+        <f>Z34+TIME(0,30,0)</f>
+        <v>0.56180555555555556</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26">
+      <c r="C38" s="59"/>
+      <c r="D38" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="28">
+        <f>E41-TIME(,30,)</f>
+        <v>0.65694444444444455</v>
+      </c>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="2:26">
+      <c r="C39" s="59"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="27"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="3">
+        <f>Z37+TIME(0,22,0)</f>
+        <v>0.57708333333333328</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26">
+      <c r="C40" s="59"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="27"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="2:26">
+      <c r="C41" s="59"/>
+      <c r="D41" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="28">
+        <f>E43-TIME(,22,)</f>
+        <v>0.67777777777777792</v>
+      </c>
+      <c r="W41" s="2">
+        <f>W32+TIME(0,90,0)</f>
+        <v>0.58680555555555547</v>
+      </c>
+      <c r="X41" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="2:26">
+      <c r="C42" s="59"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="27"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="2:26">
+      <c r="C43" s="59"/>
+      <c r="D43" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="28">
+        <f>E52-TIME(,90,)</f>
+        <v>0.69305555555555565</v>
+      </c>
+      <c r="W43" s="2">
+        <f>W41+TIME(0,24,0)</f>
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" spans="2:26">
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="27"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="49"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="2:26">
+      <c r="C45" s="60"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="27"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="49"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="B46" s="23">
+        <f>B48-TIME(,20,)</f>
+        <v>0.71250000000000013</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="59"/>
+      <c r="E46" s="27"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="2:26">
+      <c r="C47" s="50"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="27"/>
+      <c r="Y47" s="50"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="2:26">
+      <c r="B48" s="23">
+        <f>B49-TIME(,10,)</f>
+        <v>0.72638888888888897</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="59"/>
+      <c r="E48" s="27"/>
+      <c r="Y48" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z48" s="3">
+        <f>Z39+TIME(0,90,0)</f>
+        <v>0.63958333333333328</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26">
+      <c r="B49" s="23">
+        <f>E52-TIME(,32,)</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="59"/>
+      <c r="E49" s="27"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="2:26">
+      <c r="B50"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="27"/>
+      <c r="X50" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="3">
+        <f>Z48+TIME(0,22,0)</f>
+        <v>0.65486111111111101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26">
+      <c r="B51"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="27"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="2:26">
+      <c r="B52"/>
+      <c r="D52" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="28">
+        <f>E54-TIME(,22,)</f>
+        <v>0.75555555555555565</v>
+      </c>
+      <c r="X52" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="3">
+        <f>Z50+TIME(0,25,0)</f>
+        <v>0.67222222222222217</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26">
+      <c r="B53"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="27"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="1"/>
+    </row>
+    <row r="54" spans="2:26">
+      <c r="B54"/>
+      <c r="D54" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="28">
+        <f>E55-TIME(,10,)</f>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="X54" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="3">
+        <f>Z52+TIME(0,25,0)</f>
+        <v>0.68958333333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26">
+      <c r="B55"/>
+      <c r="D55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="28">
+        <f>E56-TIME(,10,)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="X55" s="66"/>
+      <c r="Y55" s="67"/>
+      <c r="Z55" s="1"/>
+    </row>
+    <row r="56" spans="2:26">
+      <c r="B56"/>
+      <c r="C56" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="28">
+        <f>E79-TIME(,190,)</f>
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="X56" s="66"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="1"/>
+    </row>
+    <row r="57" spans="2:26">
+      <c r="B57"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="27"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="1"/>
+    </row>
+    <row r="58" spans="2:26">
+      <c r="B58"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="28"/>
+      <c r="X58" s="66"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="1"/>
+    </row>
+    <row r="59" spans="2:26">
+      <c r="B59"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="27"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="1"/>
+    </row>
+    <row r="60" spans="2:26">
+      <c r="B60"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="28"/>
+      <c r="X60" s="66"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="1"/>
+    </row>
+    <row r="61" spans="2:26">
+      <c r="B61"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="27"/>
+      <c r="X61" s="66"/>
+      <c r="Y61" s="67"/>
+      <c r="Z61" s="1"/>
+    </row>
+    <row r="62" spans="2:26">
+      <c r="B62"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="27"/>
+      <c r="X62" s="66"/>
+      <c r="Y62" s="67"/>
+      <c r="Z62" s="1"/>
+    </row>
+    <row r="63" spans="2:26">
+      <c r="B63"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="27"/>
+      <c r="X63" s="66"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="1"/>
+    </row>
+    <row r="64" spans="2:26">
+      <c r="B64"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="27"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="1"/>
+    </row>
+    <row r="65" spans="2:26">
+      <c r="B65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="27"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="67"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="2:26">
+      <c r="B66"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="27"/>
+      <c r="X66" s="66"/>
+      <c r="Y66" s="67"/>
+      <c r="Z66" s="1"/>
+    </row>
+    <row r="67" spans="2:26">
+      <c r="B67"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="27"/>
+      <c r="X67" s="66"/>
+      <c r="Y67" s="67"/>
+      <c r="Z67" s="1"/>
+    </row>
+    <row r="68" spans="2:26">
+      <c r="B68"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="27"/>
+      <c r="X68" s="66"/>
+      <c r="Y68" s="67"/>
+      <c r="Z68" s="1"/>
+    </row>
+    <row r="69" spans="2:26">
+      <c r="B69"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="27"/>
+      <c r="X69" s="66"/>
+      <c r="Y69" s="67"/>
+      <c r="Z69" s="1"/>
+    </row>
+    <row r="70" spans="2:26">
+      <c r="B70"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="27"/>
+      <c r="X70" s="66"/>
+      <c r="Y70" s="67"/>
+      <c r="Z70" s="1"/>
+    </row>
+    <row r="71" spans="2:26">
+      <c r="B71"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="28"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="67"/>
+      <c r="Z71" s="1"/>
+    </row>
+    <row r="72" spans="2:26">
+      <c r="B72"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="27"/>
+      <c r="X72" s="66"/>
+      <c r="Y72" s="67"/>
+      <c r="Z72" s="1"/>
+    </row>
+    <row r="73" spans="2:26">
+      <c r="B73"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="27"/>
+      <c r="X73" s="66"/>
+      <c r="Y73" s="67"/>
+      <c r="Z73" s="1"/>
+    </row>
+    <row r="74" spans="2:26">
+      <c r="B74"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="27"/>
+      <c r="X74" s="66"/>
+      <c r="Y74" s="67"/>
+      <c r="Z74" s="1"/>
+    </row>
+    <row r="75" spans="2:26">
+      <c r="B75"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="27"/>
+      <c r="X75" s="66"/>
+      <c r="Y75" s="67"/>
+      <c r="Z75" s="1"/>
+    </row>
+    <row r="76" spans="2:26">
+      <c r="B76"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="27"/>
+      <c r="X76" s="66"/>
+      <c r="Y76" s="67"/>
+      <c r="Z76" s="1"/>
+    </row>
+    <row r="77" spans="2:26">
+      <c r="B77"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="27"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="43"/>
+      <c r="Z77" s="3">
+        <f>Z54+TIME(0,252,0)</f>
+        <v>0.86458333333333337</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26">
+      <c r="B78"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="27"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="2:26">
+      <c r="B79"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="28">
         <v>0.91666666666666663</v>
       </c>
       <c r="O79" s="3"/>
       <c r="P79" s="12"/>
     </row>
-    <row r="81" spans="5:5" customFormat="1">
+    <row r="81" spans="5:5" customFormat="1" ht="15">
       <c r="E81" s="35"/>
     </row>
   </sheetData>
